--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A37DBD-CC31-2C4D-AEA9-88C04D928ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E0F0D-D4E0-A646-861B-74CF39BA32CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2228,9 +2228,9 @@
     <v>Powered by Refinitiv</v>
     <v>2782.56</v>
     <v>1783.98</v>
-    <v>0.88139999999999996</v>
-    <v>84.36</v>
-    <v>3.1893999999999999E-2</v>
+    <v>0.87360000000000004</v>
+    <v>5.0599999999999996</v>
+    <v>1.8959999999999999E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2240,25 +2240,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2744.85</v>
+    <v>2704</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.833333333336</v>
+    <v>45076.833333333336</v>
     <v>0</v>
-    <v>2645</v>
-    <v>57839314320</v>
+    <v>2666.56</v>
+    <v>56667846542</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2645</v>
-    <v>81.64</v>
-    <v>2645</v>
-    <v>2729.36</v>
-    <v>2729.36</v>
+    <v>2675.03</v>
+    <v>82.38</v>
+    <v>2669.02</v>
+    <v>2674.08</v>
+    <v>2674.08</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>43390</v>
-    <v>35230</v>
+    <v>18701</v>
+    <v>30050</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2844,10 +2844,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3416,15 +3416,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>8.7344177469042581</v>
+        <v>8.5575123138024765</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>37.754121618798955</v>
+        <v>36.989455967362922</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>43.488206255639099</v>
+        <v>42.607403415037595</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4803,10 +4803,10 @@
       <c r="F83" s="1">
         <v>-9000000</v>
       </c>
-      <c r="M83" s="60" t="s">
+      <c r="M83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="N83" s="61"/>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4827,10 +4827,10 @@
       <c r="F84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M84" s="62" t="s">
+      <c r="M84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="N84" s="63"/>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5072,10 +5072,10 @@
       <c r="F93" s="1">
         <v>5000000</v>
       </c>
-      <c r="M93" s="62" t="s">
+      <c r="M93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="63"/>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="N95" s="39" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.88139999999999996</v>
+        <v>0.87360000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.8894270000000002E-2</v>
+        <v>7.8558480000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5202,10 +5202,10 @@
       <c r="F98" s="1">
         <v>-85000000</v>
       </c>
-      <c r="M98" s="62" t="s">
+      <c r="M98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="63"/>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>2.6000569649578965E-2</v>
+        <v>2.652381073130879E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="N101" s="40" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>57839314320</v>
+        <v>56667846542</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.97399943035042102</v>
+        <v>0.97347618926869117</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="N103" s="41">
         <f>N99+N101</f>
-        <v>59383314320</v>
+        <v>58211846542</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5361,10 +5361,10 @@
       <c r="F104" s="11">
         <v>811000000</v>
       </c>
-      <c r="M104" s="62" t="s">
+      <c r="M104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="63"/>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.7777181293856815E-2</v>
+        <v>7.7427817189763701E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5464,7 +5464,7 @@
       <c r="J107" s="43"/>
       <c r="K107" s="46">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>47133616005.932404</v>
+        <v>47447701054.886086</v>
       </c>
       <c r="L107" s="47" t="s">
         <v>148</v>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="K108" s="46">
         <f>K107+K106</f>
-        <v>49560522734.693504</v>
+        <v>49874607783.647186</v>
       </c>
       <c r="L108" s="47" t="s">
         <v>144</v>
@@ -5505,14 +5505,14 @@
       </c>
       <c r="N108" s="51">
         <f>N105</f>
-        <v>7.7777181293856815E-2</v>
+        <v>7.7427817189763701E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="64" t="s">
+      <c r="G109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="65"/>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="52" t="s">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="H110" s="40">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>40046224416.86425</v>
+        <v>40322785842.774117</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="H113" s="40">
         <f>H110+H111-H112</f>
-        <v>39428224416.86425</v>
+        <v>39704785842.774117</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="H115" s="55">
         <f>H113/H114</f>
-        <v>1682.5830200347375</v>
+        <v>1694.385163451409</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="H116" s="56" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2729.36</v>
+        <v>2674.08</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="H117" s="58">
         <f>H115/H116-1</f>
-        <v>-0.38352470174885778</v>
+        <v>-0.36636706326983148</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E0F0D-D4E0-A646-861B-74CF39BA32CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C4AFC-C9A5-9848-B111-C8F7ADDD36E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2226,13 +2226,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2782.56</v>
+    <v>2817.38</v>
     <v>1783.98</v>
-    <v>0.87360000000000004</v>
-    <v>5.0599999999999996</v>
-    <v>1.8959999999999999E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.84799999999999998</v>
+    <v>-32.74</v>
+    <v>-1.2202999999999999E-2</v>
     <v>CAD</v>
     <v>Constellation Software Inc. is engaged principally in the development, installation and customization of software as well as in the provisioning of related professional services and support for customers globally across over 100 diverse markets. The Company acquires, manages and builds vertical market software (VMS) businesses that develop specialized, mission-critical software solutions to address the specific needs of its particular industries. It sells on-premise software licenses on both a perpetual and specified-term basis. The Company operates through six segments, including Volaris, Harris, Topicus, Vela, Jonas and Perseus. Each of its segments operates as mini-Constellations, conglomerates of small vertical market software companies with similar economic characteristics. Its services include software licensing, professional services, maintenance and hardware services. It operates in three principal geographical areas, Canada, the United States, and United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2240,25 +2238,24 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2704</v>
+    <v>2659.44</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45076.833333333336</v>
+    <v>45099.833333333336</v>
     <v>0</v>
-    <v>2666.56</v>
-    <v>56667846542</v>
+    <v>2609.21</v>
+    <v>56162216636</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2675.03</v>
-    <v>82.38</v>
-    <v>2669.02</v>
-    <v>2674.08</v>
-    <v>2674.08</v>
+    <v>2656.13</v>
+    <v>81.8</v>
+    <v>2682.96</v>
+    <v>2650.22</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>18701</v>
-    <v>30050</v>
+    <v>26059</v>
+    <v>26300</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2290,8 +2287,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2312,7 +2307,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2329,7 +2323,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2340,16 +2334,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2415,18 +2406,12 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 20 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Delayed 20 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2471,18 +2456,12 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2847,7 +2826,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3416,15 +3395,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>8.5575123138024765</v>
+        <v>8.4811562422228928</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>36.989455967362922</v>
+        <v>36.659410336814624</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>42.607403415037595</v>
+        <v>42.227230553383457</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5127,7 +5106,7 @@
       </c>
       <c r="N95" s="39" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.87360000000000004</v>
+        <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5180,7 +5159,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.8558480000000014E-2</v>
+        <v>7.7456400000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5258,7 +5237,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>2.652381073130879E-2</v>
+        <v>2.6756216054489634E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5285,7 +5264,7 @@
       </c>
       <c r="N101" s="40" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56667846542</v>
+        <v>56162216636</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5312,7 +5291,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.97347618926869117</v>
+        <v>0.97324378394551037</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5339,7 +5318,7 @@
       </c>
       <c r="N103" s="41">
         <f>N99+N101</f>
-        <v>58211846542</v>
+        <v>57706216636</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5398,7 +5377,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.7427817189763701E-2</v>
+        <v>7.6345317655360137E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5464,7 +5443,7 @@
       <c r="J107" s="43"/>
       <c r="K107" s="46">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>47447701054.886086</v>
+        <v>48448028185.885376</v>
       </c>
       <c r="L107" s="47" t="s">
         <v>148</v>
@@ -5495,7 +5474,7 @@
       </c>
       <c r="K108" s="46">
         <f>K107+K106</f>
-        <v>49874607783.647186</v>
+        <v>50874934914.646477</v>
       </c>
       <c r="L108" s="47" t="s">
         <v>144</v>
@@ -5505,7 +5484,7 @@
       </c>
       <c r="N108" s="51">
         <f>N105</f>
-        <v>7.7427817189763701E-2</v>
+        <v>7.6345317655360137E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5520,7 +5499,7 @@
       </c>
       <c r="H110" s="40">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>40322785842.774117</v>
+        <v>41203686948.332924</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5547,7 +5526,7 @@
       </c>
       <c r="H113" s="40">
         <f>H110+H111-H112</f>
-        <v>39704785842.774117</v>
+        <v>40585686948.332924</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5565,7 +5544,7 @@
       </c>
       <c r="H115" s="55">
         <f>H113/H114</f>
-        <v>1694.385163451409</v>
+        <v>1731.9772504516318</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5574,7 +5553,7 @@
       </c>
       <c r="H116" s="56" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2674.08</v>
+        <v>2650.22</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5583,7 +5562,7 @@
       </c>
       <c r="H117" s="58">
         <f>H115/H116-1</f>
-        <v>-0.36636706326983148</v>
+        <v>-0.34647793373696079</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C4AFC-C9A5-9848-B111-C8F7ADDD36E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B9A45-6E84-B541-B52D-2675FE8BA466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,47 @@
   </si>
   <si>
     <t xml:space="preserve">Shares </t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -980,7 +1006,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1011,6 +1036,30 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,7 +1129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CSU.TO</a:t>
+              <a:t>Constellation Software</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1118,9 +1167,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3406301824212275E-2"/>
+          <c:x val="8.7999999999999995E-2"/>
           <c:y val="0.13283603723960116"/>
-          <c:w val="0.88413930348258707"/>
+          <c:w val="0.86954560530679925"/>
           <c:h val="0.70853671293368437"/>
         </c:manualLayout>
       </c:layout>
@@ -1287,11 +1336,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1331,7 +1380,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$F$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2070,13 +2119,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:colOff>1571624</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
@@ -2104,6 +2153,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.739E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2228,9 +2339,9 @@
     <v>Powered by Refinitiv</v>
     <v>2817.38</v>
     <v>1783.98</v>
-    <v>0.84799999999999998</v>
-    <v>-32.74</v>
-    <v>-1.2202999999999999E-2</v>
+    <v>0.85099999999999998</v>
+    <v>10.74</v>
+    <v>4.052E-3</v>
     <v>CAD</v>
     <v>Constellation Software Inc. is engaged principally in the development, installation and customization of software as well as in the provisioning of related professional services and support for customers globally across over 100 diverse markets. The Company acquires, manages and builds vertical market software (VMS) businesses that develop specialized, mission-critical software solutions to address the specific needs of its particular industries. It sells on-premise software licenses on both a perpetual and specified-term basis. The Company operates through six segments, including Volaris, Harris, Topicus, Vela, Jonas and Perseus. Each of its segments operates as mini-Constellations, conglomerates of small vertical market software companies with similar economic characteristics. Its services include software licensing, professional services, maintenance and hardware services. It operates in three principal geographical areas, Canada, the United States, and United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2238,24 +2349,24 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2659.44</v>
+    <v>2668.98</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.833333333336</v>
+    <v>45100.833333333336</v>
     <v>0</v>
-    <v>2609.21</v>
-    <v>56162216636</v>
+    <v>2608.21</v>
+    <v>56389810000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2656.13</v>
-    <v>81.8</v>
-    <v>2682.96</v>
+    <v>2619.38</v>
+    <v>82.13</v>
     <v>2650.22</v>
+    <v>2660.96</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>26059</v>
-    <v>26300</v>
+    <v>36573</v>
+    <v>28380</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2823,10 +2934,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2876,28 +2987,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2926,10 +3037,10 @@
         <v>6622000000</v>
       </c>
       <c r="G3" s="29">
-        <v>8237000000</v>
+        <v>8045000000</v>
       </c>
       <c r="H3" s="29">
-        <v>9262000000</v>
+        <v>9316000000</v>
       </c>
       <c r="I3" s="29">
         <v>10250000000</v>
@@ -2941,21 +3052,21 @@
         <v>12000000000</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2976,15 +3087,15 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24388402295379041</v>
+        <v>0.21488976140138938</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12443850916595856</v>
+        <v>0.15798632691112502</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10667242496221108</v>
+        <v>0.10025762129669391</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
@@ -3007,7 +3118,7 @@
         <v>0.11984949089026846</v>
       </c>
       <c r="O4" s="17">
-        <f>(F105+E105+D105)/3</f>
+        <f>(F106+E106+D106)/3</f>
         <v>0.24168927461786413</v>
       </c>
       <c r="S4" s="16"/>
@@ -3069,16 +3180,16 @@
         <v>3825000000</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3118,7 +3229,7 @@
         <v>0.23135004530353367</v>
       </c>
       <c r="O7" s="21">
-        <f>F106/F3</f>
+        <f>F107/F3</f>
         <v>0.20084566596194503</v>
       </c>
     </row>
@@ -3144,7 +3255,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3169,16 +3280,16 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="L9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3262,21 +3373,21 @@
         <v>1286000000</v>
       </c>
       <c r="L12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3357,16 +3468,16 @@
         <v>3088000000</v>
       </c>
       <c r="L15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3395,18 +3506,18 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>8.4811562422228928</v>
+        <v>8.5155255209906375</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>36.659410336814624</v>
+        <v>36.807969973890337</v>
       </c>
       <c r="O16" s="32">
-        <f>N101/F106</f>
-        <v>42.227230553383457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <f>N101/F107</f>
+        <v>42.398353383458648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3537,7 @@
         <v>78000000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3446,10 +3557,19 @@
         <v>203000000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3467,15 +3587,44 @@
       </c>
       <c r="F19" s="10">
         <v>2528000000</v>
+      </c>
+      <c r="G19" s="67">
+        <f>F19*(1+G4)</f>
+        <v>3071241316.8227124</v>
+      </c>
+      <c r="H19" s="67">
+        <f>3700000000</f>
+        <v>3700000000</v>
+      </c>
+      <c r="I19" s="67">
+        <v>4100000000</v>
+      </c>
+      <c r="J19" s="67">
+        <v>4500000000</v>
+      </c>
+      <c r="K19" s="67">
+        <v>4900000000</v>
       </c>
       <c r="L19" s="33">
         <f>F40-F56-F61</f>
         <v>-618000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="59">
+        <f>N101/G3</f>
+        <v>7.0092989434431328</v>
+      </c>
+      <c r="N19" s="60">
+        <f>N101/G28</f>
+        <v>31.758171885559811</v>
+      </c>
+      <c r="O19" s="61">
+        <f>N101/G106</f>
+        <v>26.350378504672896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3494,8 +3643,31 @@
         <f t="shared" ref="F20" si="5">(F19/E19)-1</f>
         <v>0.10344827586206895</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20" s="16">
+        <f t="shared" ref="G20" si="6">(G19/F19)-1</f>
+        <v>0.21488976140138938</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20" si="7">(H19/G19)-1</f>
+        <v>0.20472461077326098</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20" si="8">(I19/H19)-1</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="9">(J19/I19)-1</f>
+        <v>9.7560975609756184E-2</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="10">(K19/J19)-1</f>
+        <v>8.8888888888888795E-2</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3504,23 +3676,49 @@
         <v>0.42425053533190576</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:F21" si="6">C19/C3</f>
+        <f t="shared" ref="C21:F21" si="11">C19/C3</f>
         <v>0.43956316703896747</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.43677109535787789</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.44868781825303566</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.38175777710661429</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G21" s="65">
+        <f t="shared" ref="G21:K21" si="12">G19/G3</f>
+        <v>0.38175777710661435</v>
+      </c>
+      <c r="H21" s="65">
+        <f t="shared" si="12"/>
+        <v>0.39716616573636754</v>
+      </c>
+      <c r="I21" s="65">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="J21" s="65">
+        <f t="shared" si="12"/>
+        <v>0.4017857142857143</v>
+      </c>
+      <c r="K21" s="65">
+        <f t="shared" si="12"/>
+        <v>0.40833333333333333</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3539,8 +3737,16 @@
       <c r="F22" s="10">
         <v>2140000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="N22" s="62">
+        <f>(-1*F98)/N101</f>
+        <v>1.507364539798946E-3</v>
+      </c>
+      <c r="O22" s="63">
+        <f>F107/N101</f>
+        <v>2.3585821622736449E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3549,23 +3755,23 @@
         <v>0.36670235546038543</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:F23" si="7">C22/C3</f>
+        <f t="shared" ref="C23:F23" si="13">C22/C3</f>
         <v>0.38495904690990318</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.38303224331122798</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.37720329024676852</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.32316520688613715</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3585,7 +3791,7 @@
         <v>-14000000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3605,7 +3811,7 @@
         <v>2154000000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3614,23 +3820,23 @@
         <v>0.37044967880085655</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:F26" si="8">C25/C3</f>
+        <f t="shared" ref="C26:F26" si="14">C25/C3</f>
         <v>0.38893025564656242</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.38691973473587926</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.3807285546415981</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.32527937179099969</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3856,7 @@
         <v>622000000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3669,10 +3875,25 @@
       <c r="F28" s="11">
         <v>1532000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="64">
+        <v>1775600000</v>
+      </c>
+      <c r="H28" s="64">
+        <v>2021800000</v>
+      </c>
+      <c r="I28" s="64">
+        <v>2200000000</v>
+      </c>
+      <c r="J28" s="64">
+        <v>2400000000</v>
+      </c>
+      <c r="K28" s="64">
+        <v>2600000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3691,8 +3912,28 @@
         <f>(F28/E28)-1</f>
         <v>8.4985835694050937E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G29" s="16">
+        <f t="shared" ref="G29:K29" si="15">(G28/F28)-1</f>
+        <v>0.15900783289817233</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="15"/>
+        <v>0.13865735526019374</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="15"/>
+        <v>8.8139281828073957E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="15"/>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="15"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3701,23 +3942,43 @@
         <v>0.2569593147751606</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:F30" si="9">C28/C3</f>
+        <f t="shared" ref="C30:F30" si="16">C28/C3</f>
         <v>0.27153139736907422</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.27143837182712099</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.27653740697218959</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0.23135004530353367</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G30" s="65">
+        <f t="shared" ref="G30:K30" si="17">G28/G3</f>
+        <v>0.22070851460534494</v>
+      </c>
+      <c r="H30" s="65">
+        <f t="shared" si="17"/>
+        <v>0.21702447402318592</v>
+      </c>
+      <c r="I30" s="65">
+        <f t="shared" si="17"/>
+        <v>0.21463414634146341</v>
+      </c>
+      <c r="J30" s="65">
+        <f t="shared" si="17"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="K30" s="65">
+        <f t="shared" si="17"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3736,8 +3997,23 @@
       <c r="F31" s="12">
         <v>32.93</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G31" s="66">
+        <v>58.56</v>
+      </c>
+      <c r="H31" s="66">
+        <v>73</v>
+      </c>
+      <c r="I31" s="66">
+        <v>85</v>
+      </c>
+      <c r="J31" s="66">
+        <v>97</v>
+      </c>
+      <c r="K31" s="66">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3799,7 +4075,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3807,15 +4083,15 @@
         <v>5.3403141361256547E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="10">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="18">(D34-C34)/C34</f>
         <v>2.3856858846918488E-2</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.6990291262135922E-2</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.1528878281622912E-2</v>
       </c>
     </row>
@@ -3824,19 +4100,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -3844,19 +4120,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3884,7 +4160,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>10000000</v>
@@ -4165,16 +4441,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>1000000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -4424,16 +4700,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -4522,19 +4798,19 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>-179000000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4582,19 +4858,19 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4602,19 +4878,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4700,7 +4976,7 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f>B79/B3</f>
@@ -4782,34 +5058,34 @@
       <c r="F83" s="1">
         <v>-9000000</v>
       </c>
-      <c r="M83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="N83" s="63"/>
+      <c r="M83" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="N83" s="74"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="N84" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="M84" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="N84" s="76"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4831,7 +5107,7 @@
         <v>90000000</v>
       </c>
       <c r="M85" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N85" s="25">
         <f>F17</f>
@@ -4858,7 +5134,7 @@
         <v>283000000</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N86" s="25">
         <f>F56</f>
@@ -4885,7 +5161,7 @@
         <v>1297000000</v>
       </c>
       <c r="M87" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N87" s="25">
         <f>F61</f>
@@ -4912,7 +5188,7 @@
         <v>-41000000</v>
       </c>
       <c r="M88" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N88" s="35">
         <f>N85/(N86+N87)</f>
@@ -4921,7 +5197,7 @@
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f>(-1*B88)/B3</f>
@@ -4944,7 +5220,7 @@
         <v>6.1914829356689823E-3</v>
       </c>
       <c r="M89" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N89" s="25">
         <f>F27</f>
@@ -4998,7 +5274,7 @@
         <v>-97000000</v>
       </c>
       <c r="M91" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N91" s="35">
         <f>N89/N90</f>
@@ -5010,13 +5286,13 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>13000000</v>
@@ -5025,7 +5301,7 @@
         <v>6000000</v>
       </c>
       <c r="M92" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N92" s="37">
         <f>N88*(1-N91)</f>
@@ -5051,10 +5327,10 @@
       <c r="F93" s="1">
         <v>5000000</v>
       </c>
-      <c r="M93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="N93" s="65"/>
+      <c r="M93" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="N93" s="76"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5076,10 +5352,11 @@
         <v>-1694000000</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N94" s="38">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5102,11 +5379,11 @@
         <v>-89000000</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N95" s="39" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.84799999999999998</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5114,22 +5391,22 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N96" s="38">
         <v>8.4000000000000005E-2</v>
@@ -5140,26 +5417,26 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.7456400000000009E-2</v>
+        <v>7.705511000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5181,10 +5458,10 @@
       <c r="F98" s="1">
         <v>-85000000</v>
       </c>
-      <c r="M98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98" s="65"/>
+      <c r="M98" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="N98" s="76"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5206,7 +5483,7 @@
         <v>222000000</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N99" s="25">
         <f>N86+N87</f>
@@ -5233,11 +5510,11 @@
         <v>-90000000</v>
       </c>
       <c r="M100" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>2.6756216054489634E-2</v>
+        <v>2.6651104078948027E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5260,11 +5537,11 @@
         <v>-79000000</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N101" s="40" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56162216636</v>
+        <v>56389810000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5287,11 +5564,11 @@
         <v>48000000</v>
       </c>
       <c r="M102" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.97324378394551037</v>
+        <v>0.973348895921052</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5314,11 +5591,11 @@
         <v>763000000</v>
       </c>
       <c r="M103" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N103" s="41">
         <f>N99+N101</f>
-        <v>57706216636</v>
+        <v>57933810000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5340,171 +5617,203 @@
       <c r="F104" s="11">
         <v>811000000</v>
       </c>
-      <c r="M104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="N104" s="65"/>
+      <c r="M104" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="N104" s="76"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:E105" si="19">(B22*(1-$N$91))+B77+B88+B81</f>
+        <v>1268491829.1550603</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="19"/>
+        <v>1465125348.1894152</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="19"/>
+        <v>1792318477.2516251</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="19"/>
+        <v>2024838440.1114206</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-$N$91))+F77+F88+F81</f>
+        <v>2240042711.2349119</v>
+      </c>
+      <c r="G105" s="42">
+        <f>F105*(1+$N$106)</f>
+        <v>2525534007.865303</v>
+      </c>
+      <c r="H105" s="42">
+        <f t="shared" ref="H105:K105" si="20">G105*(1+$N$106)</f>
+        <v>2847410896.6287875</v>
+      </c>
+      <c r="I105" s="42">
+        <f t="shared" si="20"/>
+        <v>3210310686.3698092</v>
+      </c>
+      <c r="J105" s="42">
+        <f t="shared" si="20"/>
+        <v>3619461706.5005159</v>
+      </c>
+      <c r="K105" s="42">
+        <f t="shared" si="20"/>
+        <v>4080758632.0056639</v>
+      </c>
+      <c r="L105" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="M105" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.15124862572640185</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.58390177353342421</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>9.4745908699397141E-2</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>4.6420141620771016E-2</v>
-      </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.6345317655360137E-2</v>
+        <v>7.5959087371413658E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>636700000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>733000000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>1161000000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1271000000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1330000000</v>
-      </c>
-      <c r="G106" s="42">
-        <f>F106*(1+$N$106)</f>
-        <v>1500002317.1203866</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" ref="H106:K106" si="11">G106*(1+$N$106)</f>
-        <v>1691734549.8996458</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="11"/>
-        <v>1907974244.2120926</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="11"/>
-        <v>2151853975.4316974</v>
-      </c>
-      <c r="K106" s="42">
-        <f t="shared" si="11"/>
-        <v>2426906728.7610989</v>
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>0.15124862572640185</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>0.58390177353342421</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>9.4745908699397141E-2</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>4.6420141620771016E-2</v>
+      </c>
+      <c r="G106" s="68">
+        <v>2140000000</v>
+      </c>
+      <c r="H106" s="68">
+        <v>2387000000</v>
+      </c>
+      <c r="I106" s="68">
+        <f>+H106*(1+I4)</f>
+        <v>2626314942.0352082</v>
+      </c>
+      <c r="J106" s="68">
+        <f t="shared" ref="J106:K106" si="21">+I106*(1+J4)</f>
+        <v>2869729497.6384716</v>
+      </c>
+      <c r="K106" s="68">
+        <f t="shared" si="21"/>
+        <v>3074710176.0412197</v>
       </c>
       <c r="L106" s="43" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M106" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N106" s="45">
         <f>(SUM(G4:K4)/5)</f>
-        <v>0.12782129106795997</v>
+        <v>0.12744904157340961</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="A107" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1">
+        <v>636700000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>733000000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1161000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1271000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1330000000</v>
+      </c>
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
       <c r="J107" s="43"/>
-      <c r="K107" s="46">
+      <c r="K107" s="69">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>48448028185.885376</v>
-      </c>
-      <c r="L107" s="47" t="s">
+        <v>61845258481.025696</v>
+      </c>
+      <c r="L107" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="M107" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="N107" s="48">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G108" s="69">
+        <f t="shared" ref="G108:J108" si="22">G107+G106</f>
+        <v>2140000000</v>
+      </c>
+      <c r="H108" s="69">
+        <f t="shared" si="22"/>
+        <v>2387000000</v>
+      </c>
+      <c r="I108" s="69">
+        <f t="shared" si="22"/>
+        <v>2626314942.0352082</v>
+      </c>
+      <c r="J108" s="69">
+        <f t="shared" si="22"/>
+        <v>2869729497.6384716</v>
+      </c>
+      <c r="K108" s="69">
+        <f>K107+K106</f>
+        <v>64919968657.066917</v>
+      </c>
+      <c r="L108" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="M108" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="M107" s="48" t="s">
+      <c r="N108" s="50">
+        <f>N105</f>
+        <v>7.5959087371413658E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="N107" s="49">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="46">
-        <f t="shared" ref="G108:I108" si="12">G107+G106</f>
-        <v>1500002317.1203866</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="12"/>
-        <v>1691734549.8996458</v>
-      </c>
-      <c r="I108" s="46">
-        <f t="shared" si="12"/>
-        <v>1907974244.2120926</v>
-      </c>
-      <c r="J108" s="46">
-        <f>J107+J106</f>
-        <v>2151853975.4316974</v>
-      </c>
-      <c r="K108" s="46">
-        <f>K107+K106</f>
-        <v>50874934914.646477</v>
-      </c>
-      <c r="L108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="M108" s="50" t="s">
+      <c r="H109" s="72"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="51" t="s">
         <v>150</v>
-      </c>
-      <c r="N108" s="51">
-        <f>N105</f>
-        <v>7.6345317655360137E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="61"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="52" t="s">
-        <v>152</v>
       </c>
       <c r="H110" s="40">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>41203686948.332924</v>
+        <v>53319806766.701149</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="52" t="s">
-        <v>153</v>
+      <c r="G111" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="H111" s="40">
         <f>F40</f>
@@ -5512,8 +5821,8 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="52" t="s">
-        <v>140</v>
+      <c r="G112" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="H112" s="40">
         <f>N99</f>
@@ -5521,55 +5830,55 @@
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="52" t="s">
-        <v>154</v>
+      <c r="G113" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="H113" s="40">
         <f>H110+H111-H112</f>
-        <v>40585686948.332924</v>
+        <v>52701806766.701149</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="53">
+      <c r="G114" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="H114" s="52">
         <f>F34*(1+(5*L16))</f>
         <v>23433152.449173201</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="54" t="s">
+      <c r="G115" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="H115" s="54">
+        <f>H113/H114</f>
+        <v>2249.0276065506773</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G116" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="H116" s="55" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price")</f>
+        <v>2660.96</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="H115" s="55">
-        <f>H113/H114</f>
-        <v>1731.9772504516318</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="52" t="s">
+      <c r="H117" s="57">
+        <f>H115/H116-1</f>
+        <v>-0.15480593223848638</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G118" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="H116" s="56" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2650.22</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="H117" s="58">
-        <f>H115/H116-1</f>
-        <v>-0.34647793373696079</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="59" t="str">
+      <c r="H118" s="58" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5596,8 +5905,9 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sedar.com/ModifyCompanyDocumentSearchForm.do?lang=EN&amp;company_search=Constellation Software Inc.&amp;document_selection=0&amp;industry_group=A&amp;FromDate=13&amp;FromMonth=05&amp;FromYear=2000&amp;ToDate=13&amp;ToMonth=11&amp;ToYear=2020&amp;Variable=Issuer" xr:uid="{CDDF8FB7-4D0C-FD43-B1F6-6BB75457972A}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sedar.com/ModifyCompanyDocumentSearchForm.do?lang=EN&amp;company_search=Constellation Software Inc.&amp;document_selection=0&amp;industry_group=A&amp;FromDate=13&amp;FromMonth=05&amp;FromYear=2000&amp;ToDate=13&amp;ToMonth=11&amp;ToYear=2020&amp;Variable=Issuer" xr:uid="{8DB46733-2885-4344-A1CE-AD12FDFA6658}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/TSX:CSU/models/dcf-revenue-exit-5yr" xr:uid="{7AC97402-8CAE-F240-8C8C-5E21B418FD6C}"/>
+    <hyperlink ref="L106" r:id="rId13" xr:uid="{EB5E80A8-A179-C845-98C4-7A7B1DAC9E2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B9A45-6E84-B541-B52D-2675FE8BA466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169F085-BBC7-7142-8562-67B6A38A83E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -919,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -964,20 +911,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,58 +925,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,22 +954,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2199,7 +2127,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2339,9 +2267,11 @@
     <v>Powered by Refinitiv</v>
     <v>2817.38</v>
     <v>1783.98</v>
-    <v>0.85099999999999998</v>
-    <v>10.74</v>
-    <v>4.052E-3</v>
+    <v>0.84609999999999996</v>
+    <v>40.729999999999997</v>
+    <v>1.5063E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>CAD</v>
     <v>Constellation Software Inc. is engaged principally in the development, installation and customization of software as well as in the provisioning of related professional services and support for customers globally across over 100 diverse markets. The Company acquires, manages and builds vertical market software (VMS) businesses that develop specialized, mission-critical software solutions to address the specific needs of its particular industries. It sells on-premise software licenses on both a perpetual and specified-term basis. The Company operates through six segments, including Volaris, Harris, Topicus, Vela, Jonas and Perseus. Each of its segments operates as mini-Constellations, conglomerates of small vertical market software companies with similar economic characteristics. Its services include software licensing, professional services, maintenance and hardware services. It operates in three principal geographical areas, Canada, the United States, and United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2349,24 +2279,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2668.98</v>
+    <v>2767.9050000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45100.833333333336</v>
+    <v>45107.833333333336</v>
     <v>0</v>
-    <v>2608.21</v>
-    <v>56389810000</v>
+    <v>2685.03</v>
+    <v>58165660000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2619.38</v>
-    <v>82.13</v>
-    <v>2650.22</v>
-    <v>2660.96</v>
+    <v>2685.03</v>
+    <v>83.46</v>
+    <v>2704.03</v>
+    <v>2744.76</v>
+    <v>2744.76</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>36573</v>
-    <v>28380</v>
+    <v>36246</v>
+    <v>26560</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2398,6 +2329,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2418,6 +2351,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2434,7 +2368,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2445,13 +2379,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2517,12 +2454,18 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 20 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 20 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2567,12 +2510,18 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2937,7 +2886,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2966,19 +2915,19 @@
       <c r="F1" s="8">
         <v>2022</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2023</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2024</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2025</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2026</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -3036,19 +2985,19 @@
       <c r="F3" s="1">
         <v>6622000000</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>8045000000</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>9316000000</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="25">
         <v>10250000000</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="25">
         <v>11200000000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="25">
         <v>12000000000</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -3500,21 +3449,21 @@
       <c r="F16" s="1">
         <v>5885000000</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <f>(F35+E35+D35+C35+B35)/5</f>
         <v>2.1155833950386775E-2</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="27">
         <f>N101/F3</f>
-        <v>8.5155255209906375</v>
-      </c>
-      <c r="N16" s="31">
+        <v>8.78369978858351</v>
+      </c>
+      <c r="N16" s="27">
         <f>N101/F28</f>
-        <v>36.807969973890337</v>
-      </c>
-      <c r="O16" s="32">
+        <v>37.967140992167103</v>
+      </c>
+      <c r="O16" s="28">
         <f>N101/F107</f>
-        <v>42.398353383458648</v>
+        <v>43.733578947368422</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3588,38 +3537,38 @@
       <c r="F19" s="10">
         <v>2528000000</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="41">
         <f>F19*(1+G4)</f>
         <v>3071241316.8227124</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="41">
         <f>3700000000</f>
         <v>3700000000</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="41">
         <v>4100000000</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="41">
         <v>4500000000</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="41">
         <v>4900000000</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="29">
         <f>F40-F56-F61</f>
         <v>-618000000</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="33">
         <f>N101/G3</f>
-        <v>7.0092989434431328</v>
-      </c>
-      <c r="N19" s="60">
+        <v>7.2300385332504664</v>
+      </c>
+      <c r="N19" s="34">
         <f>N101/G28</f>
-        <v>31.758171885559811</v>
-      </c>
-      <c r="O19" s="61">
+        <v>32.758312683036721</v>
+      </c>
+      <c r="O19" s="35">
         <f>N101/G106</f>
-        <v>26.350378504672896</v>
+        <v>27.18021495327103</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3691,23 +3640,23 @@
         <f t="shared" si="11"/>
         <v>0.38175777710661429</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="39">
         <f t="shared" ref="G21:K21" si="12">G19/G3</f>
         <v>0.38175777710661435</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="39">
         <f t="shared" si="12"/>
         <v>0.39716616573636754</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="39">
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="39">
         <f t="shared" si="12"/>
         <v>0.4017857142857143</v>
       </c>
-      <c r="K21" s="65">
+      <c r="K21" s="39">
         <f t="shared" si="12"/>
         <v>0.40833333333333333</v>
       </c>
@@ -3737,13 +3686,13 @@
       <c r="F22" s="10">
         <v>2140000000</v>
       </c>
-      <c r="N22" s="62">
+      <c r="N22" s="36">
         <f>(-1*F98)/N101</f>
-        <v>1.507364539798946E-3</v>
-      </c>
-      <c r="O22" s="63">
+        <v>1.461343342446385E-3</v>
+      </c>
+      <c r="O22" s="37">
         <f>F107/N101</f>
-        <v>2.3585821622736449E-2</v>
+        <v>2.2865725240631671E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3875,19 +3824,19 @@
       <c r="F28" s="11">
         <v>1532000000</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="38">
         <v>1775600000</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="38">
         <v>2021800000</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="38">
         <v>2200000000</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="38">
         <v>2400000000</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="38">
         <v>2600000000</v>
       </c>
     </row>
@@ -3957,23 +3906,23 @@
         <f t="shared" si="16"/>
         <v>0.23135004530353367</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="39">
         <f t="shared" ref="G30:K30" si="17">G28/G3</f>
         <v>0.22070851460534494</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="39">
         <f t="shared" si="17"/>
         <v>0.21702447402318592</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="39">
         <f t="shared" si="17"/>
         <v>0.21463414634146341</v>
       </c>
-      <c r="J30" s="65">
+      <c r="J30" s="39">
         <f t="shared" si="17"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="39">
         <f t="shared" si="17"/>
         <v>0.21666666666666667</v>
       </c>
@@ -3997,19 +3946,19 @@
       <c r="F31" s="12">
         <v>32.93</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="40">
         <v>58.56</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="40">
         <v>73</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="40">
         <v>85</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="40">
         <v>97</v>
       </c>
-      <c r="K31" s="66">
+      <c r="K31" s="40">
         <v>115</v>
       </c>
     </row>
@@ -5058,10 +5007,10 @@
       <c r="F83" s="1">
         <v>-9000000</v>
       </c>
-      <c r="M83" s="73" t="s">
+      <c r="M83" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="N83" s="74"/>
+      <c r="N83" s="68"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5082,10 +5031,10 @@
       <c r="F84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M84" s="75" t="s">
+      <c r="M84" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="N84" s="76"/>
+      <c r="N84" s="69"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5106,10 +5055,10 @@
       <c r="F85" s="1">
         <v>90000000</v>
       </c>
-      <c r="M85" s="24" t="s">
+      <c r="M85" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="N85" s="25">
+      <c r="N85" s="46">
         <f>F17</f>
         <v>78000000</v>
       </c>
@@ -5133,10 +5082,10 @@
       <c r="F86" s="1">
         <v>283000000</v>
       </c>
-      <c r="M86" s="24" t="s">
+      <c r="M86" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="N86" s="25">
+      <c r="N86" s="46">
         <f>F56</f>
         <v>423000000</v>
       </c>
@@ -5160,10 +5109,10 @@
       <c r="F87" s="10">
         <v>1297000000</v>
       </c>
-      <c r="M87" s="24" t="s">
+      <c r="M87" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="N87" s="25">
+      <c r="N87" s="46">
         <f>F61</f>
         <v>1121000000</v>
       </c>
@@ -5187,10 +5136,10 @@
       <c r="F88" s="1">
         <v>-41000000</v>
       </c>
-      <c r="M88" s="34" t="s">
+      <c r="M88" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="N88" s="35">
+      <c r="N88" s="48">
         <f>N85/(N86+N87)</f>
         <v>5.0518134715025906E-2</v>
       </c>
@@ -5219,10 +5168,10 @@
         <f>(-1*F88)/F3</f>
         <v>6.1914829356689823E-3</v>
       </c>
-      <c r="M89" s="24" t="s">
+      <c r="M89" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="N89" s="25">
+      <c r="N89" s="46">
         <f>F27</f>
         <v>622000000</v>
       </c>
@@ -5246,10 +5195,10 @@
       <c r="F90" s="1">
         <v>-1663000000</v>
       </c>
-      <c r="M90" s="24" t="s">
+      <c r="M90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="25">
+      <c r="N90" s="46">
         <f>F25</f>
         <v>2154000000</v>
       </c>
@@ -5273,10 +5222,10 @@
       <c r="F91" s="1">
         <v>-97000000</v>
       </c>
-      <c r="M91" s="34" t="s">
+      <c r="M91" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="N91" s="35">
+      <c r="N91" s="48">
         <f>N89/N90</f>
         <v>0.28876508820798513</v>
       </c>
@@ -5300,10 +5249,10 @@
       <c r="F92" s="1">
         <v>6000000</v>
       </c>
-      <c r="M92" s="36" t="s">
+      <c r="M92" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="N92" s="37">
+      <c r="N92" s="48">
         <f>N88*(1-N91)</f>
         <v>3.5930261087938578E-2</v>
       </c>
@@ -5327,10 +5276,10 @@
       <c r="F93" s="1">
         <v>5000000</v>
       </c>
-      <c r="M93" s="75" t="s">
+      <c r="M93" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="N93" s="76"/>
+      <c r="N93" s="69"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5351,12 +5300,12 @@
       <c r="F94" s="10">
         <v>-1694000000</v>
       </c>
-      <c r="M94" s="24" t="s">
+      <c r="M94" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="N94" s="38">
+      <c r="N94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5378,12 +5327,12 @@
       <c r="F95" s="1">
         <v>-89000000</v>
       </c>
-      <c r="M95" s="24" t="s">
+      <c r="M95" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="N95" s="39" cm="1">
+      <c r="N95" s="50" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.85099999999999998</v>
+        <v>0.84609999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5405,10 +5354,10 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M96" s="24" t="s">
+      <c r="M96" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="N96" s="38">
+      <c r="N96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5431,12 +5380,12 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M97" s="36" t="s">
+      <c r="M97" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="N97" s="37">
+      <c r="N97" s="48">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.705511000000001E-2</v>
+        <v>7.7003706000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5458,10 +5407,10 @@
       <c r="F98" s="1">
         <v>-85000000</v>
       </c>
-      <c r="M98" s="75" t="s">
+      <c r="M98" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="N98" s="76"/>
+      <c r="N98" s="69"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5482,10 +5431,10 @@
       <c r="F99" s="1">
         <v>222000000</v>
       </c>
-      <c r="M99" s="24" t="s">
+      <c r="M99" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="N99" s="25">
+      <c r="N99" s="46">
         <f>N86+N87</f>
         <v>1544000000</v>
       </c>
@@ -5509,12 +5458,12 @@
       <c r="F100" s="10">
         <v>-90000000</v>
       </c>
-      <c r="M100" s="34" t="s">
+      <c r="M100" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="35">
+      <c r="N100" s="48">
         <f>N99/N103</f>
-        <v>2.6651104078948027E-2</v>
+        <v>2.5858462433046847E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5536,12 +5485,12 @@
       <c r="F101" s="1">
         <v>-79000000</v>
       </c>
-      <c r="M101" s="24" t="s">
+      <c r="M101" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="N101" s="40" cm="1">
+      <c r="N101" s="51" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56389810000</v>
+        <v>58165660000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5563,12 +5512,12 @@
       <c r="F102" s="10">
         <v>48000000</v>
       </c>
-      <c r="M102" s="34" t="s">
+      <c r="M102" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="N102" s="35">
+      <c r="N102" s="48">
         <f>N101/N103</f>
-        <v>0.973348895921052</v>
+        <v>0.97414153756695321</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5590,12 +5539,12 @@
       <c r="F103" s="1">
         <v>763000000</v>
       </c>
-      <c r="M103" s="36" t="s">
+      <c r="M103" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="N103" s="41">
+      <c r="N103" s="52">
         <f>N99+N101</f>
-        <v>57933810000</v>
+        <v>59709660000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5617,10 +5566,10 @@
       <c r="F104" s="11">
         <v>811000000</v>
       </c>
-      <c r="M104" s="75" t="s">
+      <c r="M104" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="N104" s="76"/>
+      <c r="N104" s="69"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5646,35 +5595,35 @@
         <f>(F22*(1-$N$91))+F77+F88+F81</f>
         <v>2240042711.2349119</v>
       </c>
-      <c r="G105" s="42">
+      <c r="G105" s="30">
         <f>F105*(1+$N$106)</f>
         <v>2525534007.865303</v>
       </c>
-      <c r="H105" s="42">
+      <c r="H105" s="30">
         <f t="shared" ref="H105:K105" si="20">G105*(1+$N$106)</f>
         <v>2847410896.6287875</v>
       </c>
-      <c r="I105" s="42">
+      <c r="I105" s="30">
         <f t="shared" si="20"/>
         <v>3210310686.3698092</v>
       </c>
-      <c r="J105" s="42">
+      <c r="J105" s="30">
         <f t="shared" si="20"/>
         <v>3619461706.5005159</v>
       </c>
-      <c r="K105" s="42">
+      <c r="K105" s="30">
         <f t="shared" si="20"/>
         <v>4080758632.0056639</v>
       </c>
-      <c r="L105" s="43" t="s">
+      <c r="L105" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="M105" s="26" t="s">
+      <c r="M105" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="N105" s="27">
+      <c r="N105" s="54">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.5959087371413658E-2</v>
+        <v>7.5941609867745646E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5698,37 +5647,37 @@
         <f>(F107/E107)-1</f>
         <v>4.6420141620771016E-2</v>
       </c>
-      <c r="G106" s="68">
+      <c r="G106" s="42">
         <v>2140000000</v>
       </c>
-      <c r="H106" s="68">
+      <c r="H106" s="42">
         <v>2387000000</v>
       </c>
-      <c r="I106" s="68">
+      <c r="I106" s="42">
         <f>+H106*(1+I4)</f>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J106" s="68">
+      <c r="J106" s="42">
         <f t="shared" ref="J106:K106" si="21">+I106*(1+J4)</f>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K106" s="68">
+      <c r="K106" s="42">
         <f t="shared" si="21"/>
         <v>3074710176.0412197</v>
       </c>
-      <c r="L106" s="43" t="s">
+      <c r="L106" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="M106" s="44" t="s">
+      <c r="M106" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N106" s="56">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.12744904157340961</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="44" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="1">
@@ -5746,139 +5695,139 @@
       <c r="F107" s="1">
         <v>1330000000</v>
       </c>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="69">
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="43">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>61845258481.025696</v>
-      </c>
-      <c r="L107" s="46" t="s">
+        <v>61866476906.09623</v>
+      </c>
+      <c r="L107" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="47" t="s">
+      <c r="M107" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="N107" s="48">
+      <c r="N107" s="58">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="69">
+      <c r="G108" s="43">
         <f t="shared" ref="G108:J108" si="22">G107+G106</f>
         <v>2140000000</v>
       </c>
-      <c r="H108" s="69">
+      <c r="H108" s="43">
         <f t="shared" si="22"/>
         <v>2387000000</v>
       </c>
-      <c r="I108" s="69">
+      <c r="I108" s="43">
         <f t="shared" si="22"/>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J108" s="69">
+      <c r="J108" s="43">
         <f t="shared" si="22"/>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K108" s="69">
+      <c r="K108" s="43">
         <f>K107+K106</f>
-        <v>64919968657.066917</v>
-      </c>
-      <c r="L108" s="46" t="s">
+        <v>64941187082.137451</v>
+      </c>
+      <c r="L108" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="M108" s="49" t="s">
+      <c r="M108" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="N108" s="50">
+      <c r="N108" s="56">
         <f>N105</f>
-        <v>7.5959087371413658E-2</v>
+        <v>7.5941609867745646E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="71" t="s">
+      <c r="G109" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="H109" s="72"/>
+      <c r="H109" s="66"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="51" t="s">
+      <c r="G110" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="H110" s="40">
+      <c r="H110" s="51">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>53319806766.701149</v>
+        <v>53338519830.350304</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="51" t="s">
+      <c r="G111" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H111" s="40">
+      <c r="H111" s="51">
         <f>F40</f>
         <v>926000000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="51" t="s">
+      <c r="G112" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H112" s="40">
+      <c r="H112" s="51">
         <f>N99</f>
         <v>1544000000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="51" t="s">
+      <c r="G113" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="H113" s="40">
+      <c r="H113" s="51">
         <f>H110+H111-H112</f>
-        <v>52701806766.701149</v>
+        <v>52720519830.350304</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="51" t="s">
+      <c r="G114" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="H114" s="52">
+      <c r="H114" s="60">
         <f>F34*(1+(5*L16))</f>
         <v>23433152.449173201</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="53" t="s">
+      <c r="G115" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="H115" s="54">
+      <c r="H115" s="62">
         <f>H113/H114</f>
-        <v>2249.0276065506773</v>
+        <v>2249.8261787312554</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="51" t="s">
+      <c r="G116" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="H116" s="55" cm="1">
+      <c r="H116" s="63" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2660.96</v>
+        <v>2744.76</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="56" t="s">
+      <c r="G117" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="H117" s="57">
+      <c r="H117" s="64">
         <f>H115/H116-1</f>
-        <v>-0.15480593223848638</v>
+        <v>-0.18031952566663201</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="56" t="s">
+      <c r="G118" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="H118" s="58" t="str">
+      <c r="H118" s="65" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169F085-BBC7-7142-8562-67B6A38A83E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2631A5-992C-3048-BF71-CA6D235A90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,9 +2090,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2101,19 +2099,18 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
+      <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2124,22 +2121,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.8539999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2267,9 +2249,9 @@
     <v>Powered by Refinitiv</v>
     <v>2817.38</v>
     <v>1783.98</v>
-    <v>0.84609999999999996</v>
-    <v>40.729999999999997</v>
-    <v>1.5063E-2</v>
+    <v>0.84899999999999998</v>
+    <v>3.29</v>
+    <v>1.2389999999999999E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2279,25 +2261,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2767.9050000000002</v>
+    <v>2669.95</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.833333333336</v>
+    <v>45114.833333333336</v>
     <v>0</v>
-    <v>2685.03</v>
-    <v>58165660000</v>
+    <v>2617.08</v>
+    <v>56361840000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2685.03</v>
-    <v>83.46</v>
-    <v>2704.03</v>
-    <v>2744.76</v>
-    <v>2744.76</v>
+    <v>2628.06</v>
+    <v>82.09</v>
+    <v>2656.35</v>
+    <v>2659.64</v>
+    <v>2659.64</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>36246</v>
-    <v>26560</v>
+    <v>19473</v>
+    <v>22120</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2883,10 +2865,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3455,15 +3437,15 @@
       </c>
       <c r="M16" s="27">
         <f>N101/F3</f>
-        <v>8.78369978858351</v>
+        <v>8.511301721534279</v>
       </c>
       <c r="N16" s="27">
         <f>N101/F28</f>
-        <v>37.967140992167103</v>
+        <v>36.789712793733685</v>
       </c>
       <c r="O16" s="28">
         <f>N101/F107</f>
-        <v>43.733578947368422</v>
+        <v>42.377323308270675</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3560,15 +3542,15 @@
       </c>
       <c r="M19" s="33">
         <f>N101/G3</f>
-        <v>7.2300385332504664</v>
+        <v>7.0058222498446243</v>
       </c>
       <c r="N19" s="34">
         <f>N101/G28</f>
-        <v>32.758312683036721</v>
+        <v>31.742419463843209</v>
       </c>
       <c r="O19" s="35">
         <f>N101/G106</f>
-        <v>27.18021495327103</v>
+        <v>26.337308411214952</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3688,11 +3670,11 @@
       </c>
       <c r="N22" s="36">
         <f>(-1*F98)/N101</f>
-        <v>1.461343342446385E-3</v>
+        <v>1.5081125811364569E-3</v>
       </c>
       <c r="O22" s="37">
         <f>F107/N101</f>
-        <v>2.2865725240631671E-2</v>
+        <v>2.3597526269546913E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5305,7 +5287,7 @@
       </c>
       <c r="N94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5332,7 +5314,7 @@
       </c>
       <c r="N95" s="50" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.84609999999999996</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5385,7 +5367,7 @@
       </c>
       <c r="N97" s="48">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.7003706000000005E-2</v>
+        <v>7.7428479999999994E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5463,7 +5445,7 @@
       </c>
       <c r="N100" s="48">
         <f>N99/N103</f>
-        <v>2.5858462433046847E-2</v>
+        <v>2.6663977243055276E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5490,7 +5472,7 @@
       </c>
       <c r="N101" s="51" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58165660000</v>
+        <v>56361840000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5517,7 +5499,7 @@
       </c>
       <c r="N102" s="48">
         <f>N101/N103</f>
-        <v>0.97414153756695321</v>
+        <v>0.97333602275694475</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5544,7 +5526,7 @@
       </c>
       <c r="N103" s="52">
         <f>N99+N101</f>
-        <v>59709660000</v>
+        <v>57905840000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5623,7 +5605,7 @@
       </c>
       <c r="N105" s="54">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.5941609867745646E-2</v>
+        <v>7.6321972435301463E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5701,7 +5683,7 @@
       <c r="J107" s="31"/>
       <c r="K107" s="43">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>61866476906.09623</v>
+        <v>61407965845.725342</v>
       </c>
       <c r="L107" s="32" t="s">
         <v>146</v>
@@ -5732,7 +5714,7 @@
       </c>
       <c r="K108" s="43">
         <f>K107+K106</f>
-        <v>64941187082.137451</v>
+        <v>64482676021.766563</v>
       </c>
       <c r="L108" s="32" t="s">
         <v>143</v>
@@ -5742,7 +5724,7 @@
       </c>
       <c r="N108" s="56">
         <f>N105</f>
-        <v>7.5941609867745646E-2</v>
+        <v>7.6321972435301463E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5757,7 +5739,7 @@
       </c>
       <c r="H110" s="51">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>53338519830.350304</v>
+        <v>52934153169.131332</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5784,7 +5766,7 @@
       </c>
       <c r="H113" s="51">
         <f>H110+H111-H112</f>
-        <v>52720519830.350304</v>
+        <v>52316153169.131332</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5802,7 +5784,7 @@
       </c>
       <c r="H115" s="62">
         <f>H113/H114</f>
-        <v>2249.8261787312554</v>
+        <v>2232.5700002424223</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5811,7 +5793,7 @@
       </c>
       <c r="H116" s="63" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2744.76</v>
+        <v>2659.64</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5820,7 +5802,7 @@
       </c>
       <c r="H117" s="64">
         <f>H115/H116-1</f>
-        <v>-0.18031952566663201</v>
+        <v>-0.16057436335653608</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2631A5-992C-3048-BF71-CA6D235A90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB35A6-8EA3-3241-A223-8D0944B585CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2101,6 +2101,10 @@
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
@@ -2122,6 +2126,10 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2250,8 +2258,8 @@
     <v>2817.38</v>
     <v>1783.98</v>
     <v>0.84899999999999998</v>
-    <v>3.29</v>
-    <v>1.2389999999999999E-3</v>
+    <v>-44.53</v>
+    <v>-1.6742999999999997E-2</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2261,24 +2269,24 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2669.95</v>
+    <v>2640.64</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.833333333336</v>
+    <v>45117.833333333336</v>
     <v>0</v>
-    <v>2617.08</v>
-    <v>56361840000</v>
+    <v>2603.36</v>
+    <v>55418182018</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2628.06</v>
-    <v>82.09</v>
-    <v>2656.35</v>
+    <v>2625.02</v>
+    <v>80.72</v>
     <v>2659.64</v>
-    <v>2659.64</v>
+    <v>2615.11</v>
+    <v>2615.11</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>19473</v>
+    <v>18730</v>
     <v>22120</v>
     <v>2002</v>
   </rv>
@@ -2865,10 +2873,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3437,15 +3445,15 @@
       </c>
       <c r="M16" s="27">
         <f>N101/F3</f>
-        <v>8.511301721534279</v>
+        <v>8.3687982509815768</v>
       </c>
       <c r="N16" s="27">
         <f>N101/F28</f>
-        <v>36.789712793733685</v>
+        <v>36.173748053524804</v>
       </c>
       <c r="O16" s="28">
         <f>N101/F107</f>
-        <v>42.377323308270675</v>
+        <v>41.667806028571427</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3542,15 +3550,15 @@
       </c>
       <c r="M19" s="33">
         <f>N101/G3</f>
-        <v>7.0058222498446243</v>
+        <v>6.8885248002486019</v>
       </c>
       <c r="N19" s="34">
         <f>N101/G28</f>
-        <v>31.742419463843209</v>
+        <v>31.210960812119847</v>
       </c>
       <c r="O19" s="35">
         <f>N101/G106</f>
-        <v>26.337308411214952</v>
+        <v>25.896346737383176</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3670,11 +3678,11 @@
       </c>
       <c r="N22" s="36">
         <f>(-1*F98)/N101</f>
-        <v>1.5081125811364569E-3</v>
+        <v>1.5337926453883263E-3</v>
       </c>
       <c r="O22" s="37">
         <f>F107/N101</f>
-        <v>2.3597526269546913E-2</v>
+        <v>2.3999343745487931E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5445,7 +5453,7 @@
       </c>
       <c r="N100" s="48">
         <f>N99/N103</f>
-        <v>2.6663977243055276E-2</v>
+        <v>2.7105703210458076E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5472,7 +5480,7 @@
       </c>
       <c r="N101" s="51" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56361840000</v>
+        <v>55418182018</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5499,7 +5507,7 @@
       </c>
       <c r="N102" s="48">
         <f>N101/N103</f>
-        <v>0.97333602275694475</v>
+        <v>0.97289429678954187</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5526,7 +5534,7 @@
       </c>
       <c r="N103" s="52">
         <f>N99+N101</f>
-        <v>57905840000</v>
+        <v>56962182018</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5605,7 +5613,7 @@
       </c>
       <c r="N105" s="54">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.6321972435301463E-2</v>
+        <v>7.6303641594407029E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5683,7 +5691,7 @@
       <c r="J107" s="31"/>
       <c r="K107" s="43">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>61407965845.725342</v>
+        <v>61429906971.473648</v>
       </c>
       <c r="L107" s="32" t="s">
         <v>146</v>
@@ -5714,7 +5722,7 @@
       </c>
       <c r="K108" s="43">
         <f>K107+K106</f>
-        <v>64482676021.766563</v>
+        <v>64504617147.51487</v>
       </c>
       <c r="L108" s="32" t="s">
         <v>143</v>
@@ -5724,7 +5732,7 @@
       </c>
       <c r="N108" s="56">
         <f>N105</f>
-        <v>7.6321972435301463E-2</v>
+        <v>7.6303641594407029E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5739,7 +5747,7 @@
       </c>
       <c r="H110" s="51">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>52934153169.131332</v>
+        <v>52953503044.865524</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5766,7 +5774,7 @@
       </c>
       <c r="H113" s="51">
         <f>H110+H111-H112</f>
-        <v>52316153169.131332</v>
+        <v>52335503044.865524</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5784,7 +5792,7 @@
       </c>
       <c r="H115" s="62">
         <f>H113/H114</f>
-        <v>2232.5700002424223</v>
+        <v>2233.3957481129301</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5793,7 +5801,7 @@
       </c>
       <c r="H116" s="63" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2659.64</v>
+        <v>2615.11</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5802,7 +5810,7 @@
       </c>
       <c r="H117" s="64">
         <f>H115/H116-1</f>
-        <v>-0.16057436335653608</v>
+        <v>-0.14596489321178463</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB35A6-8EA3-3241-A223-8D0944B585CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B8CD0-830A-B44C-9CAD-B41C00CF51EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -916,12 +916,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,9 +931,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -994,6 +985,9 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2100,6 +2094,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2111,7 +2106,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2130,6 +2125,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2255,11 +2251,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2817.38</v>
+    <v>2829.335</v>
     <v>1783.98</v>
-    <v>0.84899999999999998</v>
-    <v>-44.53</v>
-    <v>-1.6742999999999997E-2</v>
+    <v>0.84209999999999996</v>
+    <v>9.52</v>
+    <v>3.3929999999999997E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2269,25 +2265,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2640.64</v>
+    <v>2821</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.833333333336</v>
+    <v>45132.833333333336</v>
     <v>0</v>
-    <v>2603.36</v>
-    <v>55418182018</v>
+    <v>2799.7</v>
+    <v>59578500000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2625.02</v>
-    <v>80.72</v>
-    <v>2659.64</v>
-    <v>2615.11</v>
-    <v>2615.11</v>
+    <v>2804.87</v>
+    <v>86.61</v>
+    <v>2806.13</v>
+    <v>2815.65</v>
+    <v>2815.65</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>18730</v>
-    <v>22120</v>
+    <v>20429</v>
+    <v>19070</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2873,10 +2869,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3443,17 +3439,17 @@
         <f>(F35+E35+D35+C35+B35)/5</f>
         <v>2.1155833950386775E-2</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>8.3687982509815768</v>
-      </c>
-      <c r="N16" s="27">
+        <v>8.9970552703110851</v>
+      </c>
+      <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>36.173748053524804</v>
-      </c>
-      <c r="O16" s="28">
+        <v>38.889360313315926</v>
+      </c>
+      <c r="O16" s="33">
         <f>N101/F107</f>
-        <v>41.667806028571427</v>
+        <v>44.795864661654136</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3527,38 +3523,38 @@
       <c r="F19" s="10">
         <v>2528000000</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="38">
         <f>F19*(1+G4)</f>
         <v>3071241316.8227124</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="38">
         <f>3700000000</f>
         <v>3700000000</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="38">
         <v>4100000000</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="38">
         <v>4500000000</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="38">
         <v>4900000000</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>-618000000</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="31">
         <f>N101/G3</f>
-        <v>6.8885248002486019</v>
-      </c>
-      <c r="N19" s="34">
+        <v>7.4056556867619641</v>
+      </c>
+      <c r="N19" s="32">
         <f>N101/G28</f>
-        <v>31.210960812119847</v>
-      </c>
-      <c r="O19" s="35">
+        <v>33.554009912142376</v>
+      </c>
+      <c r="O19" s="33">
         <f>N101/G106</f>
-        <v>25.896346737383176</v>
+        <v>27.840420560747663</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,23 +3626,23 @@
         <f t="shared" si="11"/>
         <v>0.38175777710661429</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="36">
         <f t="shared" ref="G21:K21" si="12">G19/G3</f>
         <v>0.38175777710661435</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="36">
         <f t="shared" si="12"/>
         <v>0.39716616573636754</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="36">
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="36">
         <f t="shared" si="12"/>
         <v>0.4017857142857143</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="36">
         <f t="shared" si="12"/>
         <v>0.40833333333333333</v>
       </c>
@@ -3676,13 +3672,13 @@
       <c r="F22" s="10">
         <v>2140000000</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="63">
         <f>(-1*F98)/N101</f>
-        <v>1.5337926453883263E-3</v>
-      </c>
-      <c r="O22" s="37">
+        <v>1.4266891580016281E-3</v>
+      </c>
+      <c r="O22" s="34">
         <f>F107/N101</f>
-        <v>2.3999343745487931E-2</v>
+        <v>2.2323489178143124E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3814,19 +3810,19 @@
       <c r="F28" s="11">
         <v>1532000000</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="35">
         <v>1775600000</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="35">
         <v>2021800000</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="35">
         <v>2200000000</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="35">
         <v>2400000000</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="35">
         <v>2600000000</v>
       </c>
     </row>
@@ -3896,23 +3892,23 @@
         <f t="shared" si="16"/>
         <v>0.23135004530353367</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="36">
         <f t="shared" ref="G30:K30" si="17">G28/G3</f>
         <v>0.22070851460534494</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="36">
         <f t="shared" si="17"/>
         <v>0.21702447402318592</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="36">
         <f t="shared" si="17"/>
         <v>0.21463414634146341</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="36">
         <f t="shared" si="17"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="36">
         <f t="shared" si="17"/>
         <v>0.21666666666666667</v>
       </c>
@@ -3936,19 +3932,19 @@
       <c r="F31" s="12">
         <v>32.93</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="37">
         <v>58.56</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="37">
         <v>73</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="37">
         <v>85</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="37">
         <v>97</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="37">
         <v>115</v>
       </c>
     </row>
@@ -4997,10 +4993,10 @@
       <c r="F83" s="1">
         <v>-9000000</v>
       </c>
-      <c r="M83" s="67" t="s">
+      <c r="M83" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="N83" s="68"/>
+      <c r="N83" s="66"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5021,10 +5017,10 @@
       <c r="F84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M84" s="69" t="s">
+      <c r="M84" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="N84" s="69"/>
+      <c r="N84" s="67"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5045,10 +5041,10 @@
       <c r="F85" s="1">
         <v>90000000</v>
       </c>
-      <c r="M85" s="45" t="s">
+      <c r="M85" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="N85" s="46">
+      <c r="N85" s="43">
         <f>F17</f>
         <v>78000000</v>
       </c>
@@ -5072,10 +5068,10 @@
       <c r="F86" s="1">
         <v>283000000</v>
       </c>
-      <c r="M86" s="45" t="s">
+      <c r="M86" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="N86" s="46">
+      <c r="N86" s="43">
         <f>F56</f>
         <v>423000000</v>
       </c>
@@ -5099,10 +5095,10 @@
       <c r="F87" s="10">
         <v>1297000000</v>
       </c>
-      <c r="M87" s="45" t="s">
+      <c r="M87" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="N87" s="46">
+      <c r="N87" s="43">
         <f>F61</f>
         <v>1121000000</v>
       </c>
@@ -5126,10 +5122,10 @@
       <c r="F88" s="1">
         <v>-41000000</v>
       </c>
-      <c r="M88" s="47" t="s">
+      <c r="M88" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="N88" s="48">
+      <c r="N88" s="45">
         <f>N85/(N86+N87)</f>
         <v>5.0518134715025906E-2</v>
       </c>
@@ -5158,10 +5154,10 @@
         <f>(-1*F88)/F3</f>
         <v>6.1914829356689823E-3</v>
       </c>
-      <c r="M89" s="45" t="s">
+      <c r="M89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="N89" s="46">
+      <c r="N89" s="43">
         <f>F27</f>
         <v>622000000</v>
       </c>
@@ -5185,10 +5181,10 @@
       <c r="F90" s="1">
         <v>-1663000000</v>
       </c>
-      <c r="M90" s="45" t="s">
+      <c r="M90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="46">
+      <c r="N90" s="43">
         <f>F25</f>
         <v>2154000000</v>
       </c>
@@ -5212,10 +5208,10 @@
       <c r="F91" s="1">
         <v>-97000000</v>
       </c>
-      <c r="M91" s="47" t="s">
+      <c r="M91" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="N91" s="48">
+      <c r="N91" s="45">
         <f>N89/N90</f>
         <v>0.28876508820798513</v>
       </c>
@@ -5239,10 +5235,10 @@
       <c r="F92" s="1">
         <v>6000000</v>
       </c>
-      <c r="M92" s="47" t="s">
+      <c r="M92" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="N92" s="48">
+      <c r="N92" s="45">
         <f>N88*(1-N91)</f>
         <v>3.5930261087938578E-2</v>
       </c>
@@ -5266,10 +5262,10 @@
       <c r="F93" s="1">
         <v>5000000</v>
       </c>
-      <c r="M93" s="69" t="s">
+      <c r="M93" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="N93" s="69"/>
+      <c r="N93" s="67"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5290,12 +5286,12 @@
       <c r="F94" s="10">
         <v>-1694000000</v>
       </c>
-      <c r="M94" s="45" t="s">
+      <c r="M94" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5317,12 +5313,12 @@
       <c r="F95" s="1">
         <v>-89000000</v>
       </c>
-      <c r="M95" s="45" t="s">
+      <c r="M95" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="N95" s="50" cm="1">
+      <c r="N95" s="47" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.84899999999999998</v>
+        <v>0.84209999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5344,10 +5340,10 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M96" s="45" t="s">
+      <c r="M96" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="N96" s="49">
+      <c r="N96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5370,12 +5366,12 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M97" s="47" t="s">
+      <c r="M97" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="N97" s="48">
+      <c r="N97" s="45">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.7428479999999994E-2</v>
+        <v>7.6913447999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5397,10 +5393,10 @@
       <c r="F98" s="1">
         <v>-85000000</v>
       </c>
-      <c r="M98" s="69" t="s">
+      <c r="M98" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="N98" s="69"/>
+      <c r="N98" s="67"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5421,10 +5417,10 @@
       <c r="F99" s="1">
         <v>222000000</v>
       </c>
-      <c r="M99" s="45" t="s">
+      <c r="M99" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="N99" s="46">
+      <c r="N99" s="43">
         <f>N86+N87</f>
         <v>1544000000</v>
       </c>
@@ -5448,12 +5444,12 @@
       <c r="F100" s="10">
         <v>-90000000</v>
       </c>
-      <c r="M100" s="47" t="s">
+      <c r="M100" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="48">
+      <c r="N100" s="45">
         <f>N99/N103</f>
-        <v>2.7105703210458076E-2</v>
+        <v>2.5260746860812304E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5475,12 +5471,12 @@
       <c r="F101" s="1">
         <v>-79000000</v>
       </c>
-      <c r="M101" s="45" t="s">
+      <c r="M101" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="N101" s="51" cm="1">
+      <c r="N101" s="48" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>55418182018</v>
+        <v>59578500000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5502,12 +5498,12 @@
       <c r="F102" s="10">
         <v>48000000</v>
       </c>
-      <c r="M102" s="47" t="s">
+      <c r="M102" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="N102" s="48">
+      <c r="N102" s="45">
         <f>N101/N103</f>
-        <v>0.97289429678954187</v>
+        <v>0.97473925313918774</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5529,12 +5525,12 @@
       <c r="F103" s="1">
         <v>763000000</v>
       </c>
-      <c r="M103" s="47" t="s">
+      <c r="M103" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="N103" s="52">
+      <c r="N103" s="49">
         <f>N99+N101</f>
-        <v>56962182018</v>
+        <v>61122500000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5556,10 +5552,10 @@
       <c r="F104" s="11">
         <v>811000000</v>
       </c>
-      <c r="M104" s="69" t="s">
+      <c r="M104" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="N104" s="69"/>
+      <c r="N104" s="67"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5585,35 +5581,35 @@
         <f>(F22*(1-$N$91))+F77+F88+F81</f>
         <v>2240042711.2349119</v>
       </c>
-      <c r="G105" s="30">
+      <c r="G105" s="28">
         <f>F105*(1+$N$106)</f>
         <v>2525534007.865303</v>
       </c>
-      <c r="H105" s="30">
+      <c r="H105" s="28">
         <f t="shared" ref="H105:K105" si="20">G105*(1+$N$106)</f>
         <v>2847410896.6287875</v>
       </c>
-      <c r="I105" s="30">
+      <c r="I105" s="28">
         <f t="shared" si="20"/>
         <v>3210310686.3698092</v>
       </c>
-      <c r="J105" s="30">
+      <c r="J105" s="28">
         <f t="shared" si="20"/>
         <v>3619461706.5005159</v>
       </c>
-      <c r="K105" s="30">
+      <c r="K105" s="28">
         <f t="shared" si="20"/>
         <v>4080758632.0056639</v>
       </c>
-      <c r="L105" s="31" t="s">
+      <c r="L105" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="M105" s="53" t="s">
+      <c r="M105" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="N105" s="54">
+      <c r="N105" s="51">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.6303641594407029E-2</v>
+        <v>7.5878182089865062E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5637,37 +5633,37 @@
         <f>(F107/E107)-1</f>
         <v>4.6420141620771016E-2</v>
       </c>
-      <c r="G106" s="42">
+      <c r="G106" s="39">
         <v>2140000000</v>
       </c>
-      <c r="H106" s="42">
+      <c r="H106" s="39">
         <v>2387000000</v>
       </c>
-      <c r="I106" s="42">
+      <c r="I106" s="39">
         <f>+H106*(1+I4)</f>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J106" s="42">
+      <c r="J106" s="39">
         <f t="shared" ref="J106:K106" si="21">+I106*(1+J4)</f>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K106" s="42">
+      <c r="K106" s="39">
         <f t="shared" si="21"/>
         <v>3074710176.0412197</v>
       </c>
-      <c r="L106" s="31" t="s">
+      <c r="L106" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="M106" s="55" t="s">
+      <c r="M106" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="N106" s="56">
+      <c r="N106" s="53">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.12744904157340961</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="41" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="1">
@@ -5685,139 +5681,139 @@
       <c r="F107" s="1">
         <v>1330000000</v>
       </c>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="43">
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="40">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>61429906971.473648</v>
-      </c>
-      <c r="L107" s="32" t="s">
+        <v>61943603348.0065</v>
+      </c>
+      <c r="L107" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="57" t="s">
+      <c r="M107" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="N107" s="58">
+      <c r="N107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="43">
+      <c r="G108" s="40">
         <f t="shared" ref="G108:J108" si="22">G107+G106</f>
         <v>2140000000</v>
       </c>
-      <c r="H108" s="43">
+      <c r="H108" s="40">
         <f t="shared" si="22"/>
         <v>2387000000</v>
       </c>
-      <c r="I108" s="43">
+      <c r="I108" s="40">
         <f t="shared" si="22"/>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J108" s="43">
+      <c r="J108" s="40">
         <f t="shared" si="22"/>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K108" s="43">
+      <c r="K108" s="40">
         <f>K107+K106</f>
-        <v>64504617147.51487</v>
-      </c>
-      <c r="L108" s="32" t="s">
+        <v>65018313524.047722</v>
+      </c>
+      <c r="L108" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="M108" s="59" t="s">
+      <c r="M108" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="N108" s="56">
+      <c r="N108" s="53">
         <f>N105</f>
-        <v>7.6303641594407029E-2</v>
+        <v>7.5878182089865062E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="66" t="s">
+      <c r="G109" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="H109" s="66"/>
+      <c r="H109" s="64"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="60" t="s">
+      <c r="G110" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="H110" s="51">
+      <c r="H110" s="48">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>52953503044.865524</v>
+        <v>53406539800.071136</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="60" t="s">
+      <c r="G111" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="H111" s="51">
+      <c r="H111" s="48">
         <f>F40</f>
         <v>926000000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="60" t="s">
+      <c r="G112" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="H112" s="51">
+      <c r="H112" s="48">
         <f>N99</f>
         <v>1544000000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="60" t="s">
+      <c r="G113" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="H113" s="51">
+      <c r="H113" s="48">
         <f>H110+H111-H112</f>
-        <v>52335503044.865524</v>
+        <v>52788539800.071136</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="60" t="s">
+      <c r="G114" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="H114" s="60">
+      <c r="H114" s="57">
         <f>F34*(1+(5*L16))</f>
         <v>23433152.449173201</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="61" t="s">
+      <c r="G115" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="H115" s="62">
+      <c r="H115" s="59">
         <f>H113/H114</f>
-        <v>2233.3957481129301</v>
+        <v>2252.7289025482223</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="60" t="s">
+      <c r="G116" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="H116" s="63" cm="1">
+      <c r="H116" s="60" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2615.11</v>
+        <v>2815.65</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="61" t="s">
+      <c r="G117" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="H117" s="64">
+      <c r="H117" s="61">
         <f>H115/H116-1</f>
-        <v>-0.14596489321178463</v>
+        <v>-0.19992580663497872</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="61" t="s">
+      <c r="G118" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="H118" s="65" t="str">
+      <c r="H118" s="62" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B8CD0-830A-B44C-9CAD-B41C00CF51EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8125DBE-EA66-0E41-BE5C-1F0FA830DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,11 +50,25 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
@@ -64,16 +78,22 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,12 +581,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -574,13 +588,22 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
@@ -588,8 +611,9 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -706,6 +730,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -750,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,12 +892,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -919,11 +959,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,63 +975,125 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1089,15 +1186,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7999999999999995E-2"/>
-          <c:y val="0.13283603723960116"/>
-          <c:w val="0.86954560530679925"/>
-          <c:h val="0.70853671293368437"/>
+          <c:x val="9.6703150912106128E-2"/>
+          <c:y val="0.15074000608835089"/>
+          <c:w val="0.82767495854063022"/>
+          <c:h val="0.6179058108849631"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1146,12 +1243,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$F$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3736000000</c:v>
                 </c:pt>
@@ -1167,12 +1303,27 @@
                 <c:pt idx="4">
                   <c:v>6622000000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>8045000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9316000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10250000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11200000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12000000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-07EF-DB48-958C-8CE53C62E098}"/>
+              <c16:uniqueId val="{00000000-D8E3-F94B-9E1D-95B71EDE954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1181,11 +1332,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1223,33 +1374,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$F$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1585000000</c:v>
+                  <c:v>960000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1771000000</c:v>
+                  <c:v>1094000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1910000000</c:v>
+                  <c:v>1187000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2291000000</c:v>
+                  <c:v>1412000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2528000000</c:v>
+                  <c:v>1532000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1775600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2400000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-07EF-DB48-958C-8CE53C62E098}"/>
+              <c16:uniqueId val="{00000001-D8E3-F94B-9E1D-95B71EDE954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1300,12 +1505,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$K$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>636700000</c:v>
                 </c:pt>
@@ -1321,12 +1565,27 @@
                 <c:pt idx="4">
                   <c:v>1330000000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2140000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2387000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2626314942.0352082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2869729497.6384716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3074710176.0412197</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-07EF-DB48-958C-8CE53C62E098}"/>
+              <c16:uniqueId val="{00000002-D8E3-F94B-9E1D-95B71EDE954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1338,13 +1597,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="971978847"/>
-        <c:axId val="971204159"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1660004144"/>
+        <c:axId val="1709882496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="971978847"/>
+        <c:axId val="1660004144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1631,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1384,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="971204159"/>
+        <c:crossAx val="1709882496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1392,7 +1651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="971204159"/>
+        <c:axId val="1709882496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="971978847"/>
+        <c:crossAx val="1660004144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1458,10 +1717,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34797048876353143"/>
-          <c:y val="0.91680816847203217"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="5.4139335935233526E-2"/>
+          <c:x val="0.34258941512907903"/>
+          <c:y val="0.88866959799888801"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="6.309659537091436E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1568,7 +1827,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1806,7 +2065,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2041,22 +2299,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1571624</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88E9858-CB84-A679-EA3D-88A661B5B97A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9B4B15-621B-6BA0-14EA-849F7706674E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,38 +2342,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2234,7 +2492,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aaxn6h&amp;q=XTSE%3aCSU&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -2251,49 +2509,135 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2829.335</v>
-    <v>1783.98</v>
-    <v>0.84209999999999996</v>
-    <v>9.52</v>
-    <v>3.3929999999999997E-3</v>
+    <v>2905.4</v>
+    <v>1827.33</v>
+    <v>0.82679999999999998</v>
+    <v>27.61</v>
+    <v>9.7560000000000008E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
-    <v>Constellation Software Inc. is engaged principally in the development, installation and customization of software as well as in the provisioning of related professional services and support for customers globally across over 100 diverse markets. The Company acquires, manages and builds vertical market software (VMS) businesses that develop specialized, mission-critical software solutions to address the specific needs of its particular industries. It sells on-premise software licenses on both a perpetual and specified-term basis. The Company operates through six segments, including Volaris, Harris, Topicus, Vela, Jonas and Perseus. Each of its segments operates as mini-Constellations, conglomerates of small vertical market software companies with similar economic characteristics. Its services include software licensing, professional services, maintenance and hardware services. It operates in three principal geographical areas, Canada, the United States, and United Kingdom/Europe.</v>
+    <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company’s products include Empower LOS, Optimal Blue, NOVA LOS, Reverse Vision, and Axacore. It operates in three principal geographical areas, Canada, the United States, and the United Kingdom/Europe.</v>
     <v>45000</v>
     <v>Toronto Stock Exchange</v>
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2821</v>
+    <v>2868.2</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.833333333336</v>
+    <v>45218.833333333336</v>
     <v>0</v>
-    <v>2799.7</v>
-    <v>59578500000</v>
+    <v>2827.5050000000001</v>
+    <v>60557128043</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2804.87</v>
-    <v>86.61</v>
-    <v>2806.13</v>
-    <v>2815.65</v>
-    <v>2815.65</v>
+    <v>2830.01</v>
+    <v>93.42</v>
+    <v>2830</v>
+    <v>2857.61</v>
+    <v>2857.61</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>20429</v>
-    <v>19070</v>
+    <v>28352</v>
+    <v>23450</v>
     <v>2002</v>
   </rv>
   <rv s="2">
     <v>1</v>
   </rv>
+  <rv s="3">
+    <v>5</v>
+    <v>CAD/USD</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>en-US</v>
+    <v>av3wnm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0.76380000000000003</v>
+    <v>0.72030000000000005</v>
+    <v>4.0000000000000002E-4</v>
+    <v>5.488E-4</v>
+    <v>USD</v>
+    <v>CAD</v>
+    <v>0.72960000000000003</v>
+    <v>Currency Pair</v>
+    <v>45219.182349537034</v>
+    <v>0.72809999999999997</v>
+    <v>Canadian Dollar/US Dollar FX Cross Rate</v>
+    <v>0.72889999999999999</v>
+    <v>0.7288</v>
+    <v>0.72919999999999996</v>
+    <v>CADUSD</v>
+    <v>CAD/USD</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a2cqw7&amp;q=OTCM%3aCNSWF&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>Constellation Software Inc. (OTCM:CNSWF)</v>
+    <v>2</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>en-US</v>
+    <v>a2cqw7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>2198.98</v>
+    <v>1301.93</v>
+    <v>0.82679999999999998</v>
+    <v>16.059999999999999</v>
+    <v>7.7880000000000007E-3</v>
+    <v>4.7568999999999999</v>
+    <v>2.2889999999999998E-3</v>
+    <v>USD</v>
+    <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company’s products include Empower LOS, Optimal Blue, NOVA LOS, Reverse Vision, and Axacore. It operates in three principal geographical areas, Canada, the United States, and the United Kingdom/Europe.</v>
+    <v>45000</v>
+    <v>OTC Markets</v>
+    <v>OTCM</v>
+    <v>OTCM</v>
+    <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
+    <v>2097.14</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45218.838356435153</v>
+    <v>5</v>
+    <v>2040</v>
+    <v>59972030000</v>
+    <v>Constellation Software Inc.</v>
+    <v>Constellation Software Inc.</v>
+    <v>2040</v>
+    <v>90.100899999999996</v>
+    <v>2062.0949999999998</v>
+    <v>2078.1550000000002</v>
+    <v>2082.9119000000001</v>
+    <v>21191530</v>
+    <v>CNSWF</v>
+    <v>Constellation Software Inc. (OTCM:CNSWF)</v>
+    <v>846</v>
+    <v>23450</v>
+    <v>2002</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2348,12 +2692,41 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="From currency" t="s"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="Low"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2401,8 +2774,37 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">Price</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">From currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="5">
+  <spbData count="11">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2453,12 +2855,71 @@
       <v>from close</v>
       <v>from close</v>
     </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>Name</v>
+    </spb>
+    <spb s="6">
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="7">
+      <v>10</v>
+      <v>10</v>
+      <v>3</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>7</v>
+      <v>9</v>
+    </spb>
+    <spb s="8">
+      <v>GMT</v>
+    </spb>
+    <spb s="3">
+      <v>10</v>
+      <v>2</v>
+      <v>2</v>
+      <v>10</v>
+      <v>3</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2508,6 +2969,31 @@
     <k n="Price (Extended hours)" t="s"/>
     <k n="Change (Extended hours)" t="s"/>
     <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
+    <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2564,6 +3050,9 @@
     </rSty>
     <rSty dxfid="0">
       <rpv i="0">0.00</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -2866,13 +3355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3117,13 +3606,13 @@
       <c r="L6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="69" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3156,16 +3645,16 @@
         <v>0.57762005436424047</v>
       </c>
       <c r="M7" s="21">
-        <f>F21</f>
-        <v>0.38175777710661429</v>
+        <f>G21</f>
+        <v>0.38175777710661435</v>
       </c>
       <c r="N7" s="21">
-        <f>F30</f>
-        <v>0.23135004530353367</v>
+        <f>G30</f>
+        <v>0.22070851460534494</v>
       </c>
       <c r="O7" s="21">
-        <f>F107/F3</f>
-        <v>0.20084566596194503</v>
+        <f>G107/G3</f>
+        <v>0.26600372902423863</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3439,17 +3928,17 @@
         <f>(F35+E35+D35+C35+B35)/5</f>
         <v>2.1155833950386775E-2</v>
       </c>
-      <c r="M16" s="31">
-        <f>N101/F3</f>
-        <v>8.9970552703110851</v>
-      </c>
-      <c r="N16" s="31">
-        <f>N101/F28</f>
-        <v>38.889360313315926</v>
-      </c>
-      <c r="O16" s="33">
-        <f>N101/F107</f>
-        <v>44.795864661654136</v>
+      <c r="M16" s="28">
+        <f>N102/F3</f>
+        <v>9.1448396319842953</v>
+      </c>
+      <c r="N16" s="28">
+        <f>N102/F28</f>
+        <v>39.528151464099217</v>
+      </c>
+      <c r="O16" s="30">
+        <f>N102/F107</f>
+        <v>45.531675220300755</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3523,38 +4012,38 @@
       <c r="F19" s="10">
         <v>2528000000</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="35">
         <f>F19*(1+G4)</f>
         <v>3071241316.8227124</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="35">
         <f>3700000000</f>
         <v>3700000000</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="35">
         <v>4100000000</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="35">
         <v>4500000000</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="35">
         <v>4900000000</v>
       </c>
       <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>-618000000</v>
       </c>
-      <c r="M19" s="31">
-        <f>N101/G3</f>
-        <v>7.4056556867619641</v>
-      </c>
-      <c r="N19" s="32">
-        <f>N101/G28</f>
-        <v>33.554009912142376</v>
-      </c>
-      <c r="O19" s="33">
-        <f>N101/G106</f>
-        <v>27.840420560747663</v>
+      <c r="M19" s="28">
+        <f>N102/G3</f>
+        <v>7.5272999431945307</v>
+      </c>
+      <c r="N19" s="29">
+        <f>N102/G28</f>
+        <v>34.105163349290379</v>
+      </c>
+      <c r="O19" s="30">
+        <f>N102/G107</f>
+        <v>28.297723384579438</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3626,31 +4115,34 @@
         <f t="shared" si="11"/>
         <v>0.38175777710661429</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="43">
         <f t="shared" ref="G21:K21" si="12">G19/G3</f>
         <v>0.38175777710661435</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="43">
         <f t="shared" si="12"/>
         <v>0.39716616573636754</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="43">
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="43">
         <f t="shared" si="12"/>
         <v>0.4017857142857143</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="43">
         <f t="shared" si="12"/>
         <v>0.40833333333333333</v>
       </c>
+      <c r="M21" s="44" t="s">
+        <v>167</v>
+      </c>
       <c r="N21" s="19" t="s">
         <v>161</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3672,13 +4164,17 @@
       <c r="F22" s="10">
         <v>2140000000</v>
       </c>
-      <c r="N22" s="63">
-        <f>(-1*F98)/N101</f>
-        <v>1.4266891580016281E-3</v>
-      </c>
-      <c r="O22" s="34">
-        <f>F107/N101</f>
-        <v>2.2323489178143124E-2</v>
+      <c r="M22" s="17">
+        <f>SUM(G29:K29)/5</f>
+        <v>0.11200937884577282</v>
+      </c>
+      <c r="N22" s="42">
+        <f>(-1*F98)/N102</f>
+        <v>1.4036332756672968E-3</v>
+      </c>
+      <c r="O22" s="31">
+        <f>G107/N102</f>
+        <v>3.5338531881506055E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3810,19 +4306,19 @@
       <c r="F28" s="11">
         <v>1532000000</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="32">
         <v>1775600000</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="32">
         <v>2021800000</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="32">
         <v>2200000000</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="32">
         <v>2400000000</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="32">
         <v>2600000000</v>
       </c>
     </row>
@@ -3892,23 +4388,23 @@
         <f t="shared" si="16"/>
         <v>0.23135004530353367</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="33">
         <f t="shared" ref="G30:K30" si="17">G28/G3</f>
         <v>0.22070851460534494</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="33">
         <f t="shared" si="17"/>
         <v>0.21702447402318592</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="33">
         <f t="shared" si="17"/>
         <v>0.21463414634146341</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="33">
         <f t="shared" si="17"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="33">
         <f t="shared" si="17"/>
         <v>0.21666666666666667</v>
       </c>
@@ -3932,19 +4428,19 @@
       <c r="F31" s="12">
         <v>32.93</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="34">
         <v>58.56</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="34">
         <v>73</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="34">
         <v>85</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="34">
         <v>97</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="34">
         <v>115</v>
       </c>
     </row>
@@ -3968,7 +4464,7 @@
         <v>32.93</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3987,8 +4483,12 @@
       <c r="F33" s="1">
         <v>21191530</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" cm="1">
+        <f t="array" ref="G33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>21191530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4007,8 +4507,12 @@
       <c r="F34" s="1">
         <v>21191530</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" cm="1">
+        <f t="array" ref="G34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>21191530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -4018,7 +4522,7 @@
         <v>5.3403141361256547E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="18">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:G35" si="18">(D34-C34)/C34</f>
         <v>2.3856858846918488E-2</v>
       </c>
       <c r="E35" s="23">
@@ -4029,8 +4533,12 @@
         <f t="shared" si="18"/>
         <v>1.1528878281622912E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G35" s="23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4050,7 +4558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4070,7 +4578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4090,7 +4598,7 @@
         <v>811000000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4110,7 +4618,7 @@
         <v>115000000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4131,7 +4639,7 @@
         <v>926000000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4151,7 +4659,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4171,7 +4679,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4191,7 +4699,7 @@
         <v>496000000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4211,7 +4719,7 @@
         <v>2461000000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4231,7 +4739,7 @@
         <v>339000000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4251,7 +4759,7 @@
         <v>808000000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4271,7 +4779,7 @@
         <v>3416000000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4934,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -4954,7 +5462,7 @@
         <v>-60000000</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -4974,7 +5482,7 @@
         <v>-84000000</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -4993,12 +5501,8 @@
       <c r="F83" s="1">
         <v>-9000000</v>
       </c>
-      <c r="M83" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="N83" s="66"/>
-    </row>
-    <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -5017,12 +5521,18 @@
       <c r="F84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M84" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="N84" s="67"/>
-    </row>
-    <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="N84" s="75"/>
+    </row>
+    <row r="85" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5041,96 +5551,117 @@
       <c r="F85" s="1">
         <v>90000000</v>
       </c>
-      <c r="M85" s="42" t="s">
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="78"/>
+    </row>
+    <row r="86" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-142800000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-85000000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-43000000</v>
+      </c>
+      <c r="E86" s="1">
+        <v>241000000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>283000000</v>
+      </c>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="N85" s="43">
+      <c r="N86" s="46">
         <f>F17</f>
         <v>78000000</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="1">
-        <v>-142800000</v>
-      </c>
-      <c r="C86" s="1">
-        <v>-85000000</v>
-      </c>
-      <c r="D86" s="1">
-        <v>-43000000</v>
-      </c>
-      <c r="E86" s="1">
-        <v>241000000</v>
-      </c>
-      <c r="F86" s="1">
-        <v>283000000</v>
-      </c>
-      <c r="M86" s="42" t="s">
+    <row r="87" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="10">
+        <v>662000000</v>
+      </c>
+      <c r="C87" s="10">
+        <v>767000000</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1186000000</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1300000000</v>
+      </c>
+      <c r="F87" s="10">
+        <v>1297000000</v>
+      </c>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="N86" s="43">
+      <c r="N87" s="46">
         <f>F56</f>
         <v>423000000</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="10">
-        <v>662000000</v>
-      </c>
-      <c r="C87" s="10">
-        <v>767000000</v>
-      </c>
-      <c r="D87" s="10">
-        <v>1186000000</v>
-      </c>
-      <c r="E87" s="10">
-        <v>1300000000</v>
-      </c>
-      <c r="F87" s="10">
-        <v>1297000000</v>
-      </c>
-      <c r="M87" s="42" t="s">
+    <row r="88" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-25300000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-34000000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-25000000</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-29000000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-41000000</v>
+      </c>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="N87" s="43">
+      <c r="N88" s="46">
         <f>F61</f>
         <v>1121000000</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-25300000</v>
-      </c>
-      <c r="C88" s="1">
-        <v>-34000000</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-25000000</v>
-      </c>
-      <c r="E88" s="1">
-        <v>-29000000</v>
-      </c>
-      <c r="F88" s="1">
-        <v>-41000000</v>
-      </c>
-      <c r="M88" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="N88" s="45">
-        <f>N85/(N86+N87)</f>
-        <v>5.0518134715025906E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>104</v>
       </c>
@@ -5154,69 +5685,87 @@
         <f>(-1*F88)/F3</f>
         <v>6.1914829356689823E-3</v>
       </c>
-      <c r="M89" s="42" t="s">
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="N89" s="47">
+        <f>N86/(N87+N88)</f>
+        <v>5.0518134715025906E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="1">
+        <v>-484700000</v>
+      </c>
+      <c r="C90" s="1">
+        <v>-505000000</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-485000000</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-1183000000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-1663000000</v>
+      </c>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="N89" s="43">
+      <c r="N90" s="46">
         <f>F27</f>
         <v>622000000</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="1">
-        <v>-484700000</v>
-      </c>
-      <c r="C90" s="1">
-        <v>-505000000</v>
-      </c>
-      <c r="D90" s="1">
-        <v>-485000000</v>
-      </c>
-      <c r="E90" s="1">
-        <v>-1183000000</v>
-      </c>
-      <c r="F90" s="1">
-        <v>-1663000000</v>
-      </c>
-      <c r="M90" s="42" t="s">
+    <row r="91" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="1">
+        <v>-3100000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>-11000000</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-4000000</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-44000000</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-97000000</v>
+      </c>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="43">
+      <c r="N91" s="46">
         <f>F25</f>
         <v>2154000000</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="1">
-        <v>-3100000</v>
-      </c>
-      <c r="C91" s="1">
-        <v>-11000000</v>
-      </c>
-      <c r="D91" s="1">
-        <v>-4000000</v>
-      </c>
-      <c r="E91" s="1">
-        <v>-44000000</v>
-      </c>
-      <c r="F91" s="1">
-        <v>-97000000</v>
-      </c>
-      <c r="M91" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="N91" s="45">
-        <f>N89/N90</f>
-        <v>0.28876508820798513</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -5235,15 +5784,24 @@
       <c r="F92" s="1">
         <v>6000000</v>
       </c>
-      <c r="M92" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="N92" s="45">
-        <f>N88*(1-N91)</f>
-        <v>3.5930261087938578E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="N92" s="47">
+        <f>N90/N91</f>
+        <v>0.28876508820798513</v>
+      </c>
+      <c r="O92" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -5262,12 +5820,25 @@
       <c r="F93" s="1">
         <v>5000000</v>
       </c>
-      <c r="M93" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="N93" s="67"/>
-    </row>
-    <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="N93" s="47">
+        <f>N89*(1-N92)</f>
+        <v>3.5930261087938578E-2</v>
+      </c>
+      <c r="O93" s="71" cm="1">
+        <f t="array" ref="O93">_FV(O92,"Price")</f>
+        <v>0.72919999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5286,15 +5857,18 @@
       <c r="F94" s="10">
         <v>-1694000000</v>
       </c>
-      <c r="M94" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="N94" s="46">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="45"/>
+      <c r="M94" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="N94" s="78"/>
+    </row>
+    <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -5313,15 +5887,24 @@
       <c r="F95" s="1">
         <v>-89000000</v>
       </c>
-      <c r="M95" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="N95" s="47" cm="1">
-        <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>0.84209999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="N95" s="70">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
+      </c>
+      <c r="O95" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -5340,11 +5923,22 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M96" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="N96" s="46">
-        <v>8.4000000000000005E-2</v>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="N96" s="49" cm="1">
+        <f t="array" ref="N96">_FV(A1,"Beta")</f>
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="O96" s="71" cm="1">
+        <f t="array" ref="O96">_FV(O95,"Price")</f>
+        <v>2078.1550000000002</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5366,15 +5960,20 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M97" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="N97" s="45">
-        <f>(N94)+((N95)*(N96-N94))</f>
-        <v>7.6913447999999995E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="N97" s="48">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5393,12 +5992,21 @@
       <c r="F98" s="1">
         <v>-85000000</v>
       </c>
-      <c r="M98" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="N98" s="67"/>
-    </row>
-    <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+      <c r="M98" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="N98" s="47">
+        <f>(N95)+((N96)*(N97-N95))</f>
+        <v>7.7941464000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5417,13 +6025,16 @@
       <c r="F99" s="1">
         <v>222000000</v>
       </c>
-      <c r="M99" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="N99" s="43">
-        <f>N86+N87</f>
-        <v>1544000000</v>
-      </c>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="N99" s="78"/>
     </row>
     <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5444,12 +6055,18 @@
       <c r="F100" s="10">
         <v>-90000000</v>
       </c>
-      <c r="M100" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="N100" s="45">
-        <f>N99/N103</f>
-        <v>2.5260746860812304E-2</v>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="45"/>
+      <c r="M100" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="N100" s="46">
+        <f>N87+N88</f>
+        <v>1544000000</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5471,12 +6088,18 @@
       <c r="F101" s="1">
         <v>-79000000</v>
       </c>
-      <c r="M101" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="N101" s="48" cm="1">
-        <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>59578500000</v>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="N101" s="47">
+        <f>N100/N104</f>
+        <v>2.4862672364516551E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5498,12 +6121,18 @@
       <c r="F102" s="10">
         <v>48000000</v>
       </c>
-      <c r="M102" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="N102" s="45">
-        <f>N101/N103</f>
-        <v>0.97473925313918774</v>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102" s="50" cm="1">
+        <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
+        <v>60557128043</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5525,15 +6154,21 @@
       <c r="F103" s="1">
         <v>763000000</v>
       </c>
-      <c r="M103" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="N103" s="49">
-        <f>N99+N101</f>
-        <v>61122500000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N103" s="47">
+        <f>N102/N104</f>
+        <v>0.97513732763548344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5552,280 +6187,382 @@
       <c r="F104" s="11">
         <v>811000000</v>
       </c>
-      <c r="M104" s="67" t="s">
+      <c r="G104" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="76"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="N104" s="51">
+        <f>N100+N102</f>
+        <v>62101128043</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1">
+        <f>(B22*(1-$N$92))+B77+B88+B81</f>
+        <v>1268491829.1550603</v>
+      </c>
+      <c r="C105" s="1">
+        <f>(C22*(1-$N$92))+C77+C88+C81</f>
+        <v>1465125348.1894152</v>
+      </c>
+      <c r="D105" s="1">
+        <f>(D22*(1-$N$92))+D77+D88+D81</f>
+        <v>1792318477.2516251</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-$N$92))+E77+E88+E81</f>
+        <v>2024838440.1114206</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-$N$92))+F77+F88+F81</f>
+        <v>2240042711.2349119</v>
+      </c>
+      <c r="G105" s="72">
+        <f>G107/G3</f>
+        <v>0.26600372902423863</v>
+      </c>
+      <c r="H105" s="72">
+        <f>H107/H3</f>
+        <v>0.25622584800343495</v>
+      </c>
+      <c r="I105" s="72">
+        <f>I107/I3</f>
+        <v>0.25622584800343495</v>
+      </c>
+      <c r="J105" s="72">
+        <f>J107/J3</f>
+        <v>0.25622584800343495</v>
+      </c>
+      <c r="K105" s="72">
+        <f>K107/K3</f>
+        <v>0.25622584800343495</v>
+      </c>
+      <c r="L105" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="M105" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="N104" s="67"/>
-    </row>
-    <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="1">
-        <f t="shared" ref="B105:E105" si="19">(B22*(1-$N$91))+B77+B88+B81</f>
-        <v>1268491829.1550603</v>
-      </c>
-      <c r="C105" s="1">
-        <f t="shared" si="19"/>
-        <v>1465125348.1894152</v>
-      </c>
-      <c r="D105" s="1">
-        <f t="shared" si="19"/>
-        <v>1792318477.2516251</v>
-      </c>
-      <c r="E105" s="1">
-        <f t="shared" si="19"/>
-        <v>2024838440.1114206</v>
-      </c>
-      <c r="F105" s="1">
-        <f>(F22*(1-$N$91))+F77+F88+F81</f>
-        <v>2240042711.2349119</v>
-      </c>
-      <c r="G105" s="28">
-        <f>F105*(1+$N$106)</f>
-        <v>2525534007.865303</v>
-      </c>
-      <c r="H105" s="28">
-        <f t="shared" ref="H105:K105" si="20">G105*(1+$N$106)</f>
-        <v>2847410896.6287875</v>
-      </c>
-      <c r="I105" s="28">
-        <f t="shared" si="20"/>
-        <v>3210310686.3698092</v>
-      </c>
-      <c r="J105" s="28">
-        <f t="shared" si="20"/>
-        <v>3619461706.5005159</v>
-      </c>
-      <c r="K105" s="28">
-        <f t="shared" si="20"/>
-        <v>4080758632.0056639</v>
-      </c>
-      <c r="L105" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="M105" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="N105" s="51">
-        <f>(N100*N92)+(N102*N97)</f>
-        <v>7.5878182089865062E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="N105" s="78"/>
+    </row>
+    <row r="106" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:K106" si="19">(C107/B107)-1</f>
         <v>0.15124862572640185</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="19"/>
         <v>0.58390177353342421</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="19"/>
         <v>9.4745908699397141E-2</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="19"/>
         <v>4.6420141620771016E-2</v>
       </c>
-      <c r="G106" s="39">
+      <c r="G106" s="53">
+        <f t="shared" si="19"/>
+        <v>0.60902255639097747</v>
+      </c>
+      <c r="H106" s="53">
+        <f t="shared" si="19"/>
+        <v>0.11542056074766349</v>
+      </c>
+      <c r="I106" s="53">
+        <f t="shared" si="19"/>
+        <v>0.10025762129669391</v>
+      </c>
+      <c r="J106" s="53">
+        <f t="shared" si="19"/>
+        <v>9.2682926829268375E-2</v>
+      </c>
+      <c r="K106" s="53">
+        <f t="shared" si="19"/>
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="L106" s="54">
+        <f>SUM(G106:K106)/5</f>
+        <v>0.19776244733863493</v>
+      </c>
+      <c r="M106" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="N106" s="55">
+        <f>(N101*N93)+(N103*N98)</f>
+        <v>7.6896953226358186E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>636700000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>733000000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1161000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1271000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1330000000</v>
+      </c>
+      <c r="G107" s="56">
         <v>2140000000</v>
       </c>
-      <c r="H106" s="39">
+      <c r="H107" s="56">
         <v>2387000000</v>
       </c>
-      <c r="I106" s="39">
-        <f>+H106*(1+I4)</f>
+      <c r="I107" s="56">
+        <f>+H107*(1+I4)</f>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J106" s="39">
-        <f t="shared" ref="J106:K106" si="21">+I106*(1+J4)</f>
+      <c r="J107" s="56">
+        <f>+I107*(1+J4)</f>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K106" s="39">
-        <f t="shared" si="21"/>
+      <c r="K107" s="56">
+        <f>+J107*(1+K4)</f>
         <v>3074710176.0412197</v>
       </c>
-      <c r="L106" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="M106" s="52" t="s">
+      <c r="L107" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="M107" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="N106" s="53">
+      <c r="N107" s="40">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.12744904157340961</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B107" s="1">
-        <v>636700000</v>
-      </c>
-      <c r="C107" s="1">
-        <v>733000000</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1161000000</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1271000000</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1330000000</v>
-      </c>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="40">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>61943603348.0065</v>
-      </c>
-      <c r="L107" s="30" t="s">
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
+      <c r="K108" s="59">
+        <f>K107*(1+N108)/(N109-N108)</f>
+        <v>60727609898.331764</v>
+      </c>
+      <c r="L108" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="54" t="s">
+      <c r="M108" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="N107" s="55">
+      <c r="N108" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="40">
-        <f t="shared" ref="G108:J108" si="22">G107+G106</f>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G109" s="59">
+        <f>G108+G107</f>
         <v>2140000000</v>
       </c>
-      <c r="H108" s="40">
-        <f t="shared" si="22"/>
+      <c r="H109" s="59">
+        <f>H108+H107</f>
         <v>2387000000</v>
       </c>
-      <c r="I108" s="40">
-        <f t="shared" si="22"/>
+      <c r="I109" s="59">
+        <f>I108+I107</f>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J108" s="40">
-        <f t="shared" si="22"/>
+      <c r="J109" s="59">
+        <f>J108+J107</f>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K108" s="40">
-        <f>K107+K106</f>
-        <v>65018313524.047722</v>
-      </c>
-      <c r="L108" s="30" t="s">
+      <c r="K109" s="59">
+        <f>K108+K107</f>
+        <v>63802320074.372986</v>
+      </c>
+      <c r="L109" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="M108" s="56" t="s">
+      <c r="M109" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="N108" s="53">
-        <f>N105</f>
-        <v>7.5878182089865062E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="64" t="s">
+      <c r="N109" s="40">
+        <f>N106</f>
+        <v>7.6896953226358186E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G110" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="H109" s="64"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="57" t="s">
+      <c r="H110" s="77"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G111" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="H110" s="48">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>53406539800.071136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="57" t="s">
+      <c r="H111" s="50">
+        <f>NPV(N109,G109,H109,I109,J109,K109)</f>
+        <v>52334161488.466858</v>
+      </c>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
+    </row>
+    <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G112" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="H111" s="48">
+      <c r="H112" s="50">
         <f>F40</f>
         <v>926000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="57" t="s">
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="45"/>
+    </row>
+    <row r="113" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G113" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="H112" s="48">
-        <f>N99</f>
+      <c r="H113" s="50">
+        <f>N100</f>
         <v>1544000000</v>
       </c>
-    </row>
-    <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="57" t="s">
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="45"/>
+    </row>
+    <row r="114" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G114" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="H113" s="48">
-        <f>H110+H111-H112</f>
-        <v>52788539800.071136</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="57" t="s">
+      <c r="H114" s="50">
+        <f>H111+H112-H113</f>
+        <v>51716161488.466858</v>
+      </c>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="45"/>
+      <c r="N114" s="45"/>
+    </row>
+    <row r="115" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G115" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="H114" s="57">
+      <c r="H115" s="63">
         <f>F34*(1+(5*L16))</f>
         <v>23433152.449173201</v>
       </c>
-    </row>
-    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="58" t="s">
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="45"/>
+    </row>
+    <row r="116" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G116" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="H115" s="59">
-        <f>H113/H114</f>
-        <v>2252.7289025482223</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="57" t="s">
+      <c r="H116" s="65">
+        <f>H114/H115</f>
+        <v>2206.9656057007205</v>
+      </c>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="45"/>
+    </row>
+    <row r="117" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G117" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="H116" s="60" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>2815.65</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="58" t="s">
+      <c r="H117" s="66" cm="1">
+        <f t="array" ref="H117">_FV(A1,"Price")</f>
+        <v>2857.61</v>
+      </c>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="45"/>
+      <c r="N117" s="45"/>
+    </row>
+    <row r="118" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G118" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="H117" s="61">
-        <f>H115/H116-1</f>
-        <v>-0.19992580663497872</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="58" t="s">
+      <c r="H118" s="67">
+        <f>H116/H117-1</f>
+        <v>-0.22768831096590492</v>
+      </c>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="45"/>
+      <c r="N118" s="45"/>
+    </row>
+    <row r="119" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G119" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="H118" s="62" t="str">
-        <f>IF(H115&gt;H116,"BUY","SELL")</f>
+      <c r="H119" s="68" t="str">
+        <f>IF(H116&gt;H117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="I119" s="45"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="45"/>
+      <c r="L119" s="45"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="M83:N83"/>
+  <mergeCells count="7">
     <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M85:N85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CSU.TO" display="ROIC.AI | CSU.TO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5840,7 +6577,7 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sedar.com/ModifyCompanyDocumentSearchForm.do?lang=EN&amp;company_search=Constellation Software Inc.&amp;document_selection=0&amp;industry_group=A&amp;FromDate=13&amp;FromMonth=05&amp;FromYear=2000&amp;ToDate=13&amp;ToMonth=11&amp;ToYear=2020&amp;Variable=Issuer" xr:uid="{CDDF8FB7-4D0C-FD43-B1F6-6BB75457972A}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sedar.com/ModifyCompanyDocumentSearchForm.do?lang=EN&amp;company_search=Constellation Software Inc.&amp;document_selection=0&amp;industry_group=A&amp;FromDate=13&amp;FromMonth=05&amp;FromYear=2000&amp;ToDate=13&amp;ToMonth=11&amp;ToYear=2020&amp;Variable=Issuer" xr:uid="{8DB46733-2885-4344-A1CE-AD12FDFA6658}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/TSX:CSU/models/dcf-revenue-exit-5yr" xr:uid="{7AC97402-8CAE-F240-8C8C-5E21B418FD6C}"/>
-    <hyperlink ref="L106" r:id="rId13" xr:uid="{EB5E80A8-A179-C845-98C4-7A7B1DAC9E2E}"/>
+    <hyperlink ref="L107" r:id="rId13" xr:uid="{EB5E80A8-A179-C845-98C4-7A7B1DAC9E2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId14"/>

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8125DBE-EA66-0E41-BE5C-1F0FA830DC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC503A-6717-774B-8F13-36C9363B50A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2370,7 +2370,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2511,9 +2511,9 @@
     <v>Powered by Refinitiv</v>
     <v>2905.4</v>
     <v>1827.33</v>
-    <v>0.82679999999999998</v>
-    <v>27.61</v>
-    <v>9.7560000000000008E-3</v>
+    <v>0.82650000000000001</v>
+    <v>-21.96</v>
+    <v>-7.685E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2523,24 +2523,24 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2868.2</v>
+    <v>2863.1</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.833333333336</v>
+    <v>45219.833333333336</v>
     <v>0</v>
-    <v>2827.5050000000001</v>
-    <v>60557128043</v>
+    <v>2820.01</v>
+    <v>60091762044</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2830.01</v>
-    <v>93.42</v>
-    <v>2830</v>
+    <v>2849.97</v>
+    <v>94.33</v>
     <v>2857.61</v>
-    <v>2857.61</v>
+    <v>2835.65</v>
+    <v>2835.65</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>28352</v>
+    <v>32963</v>
     <v>23450</v>
     <v>2002</v>
   </rv>
@@ -2561,18 +2561,15 @@
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
     <v>0.72030000000000005</v>
-    <v>4.0000000000000002E-4</v>
-    <v>5.488E-4</v>
+    <v>2.0000000000000001E-4</v>
+    <v>2.744E-4</v>
     <v>USD</v>
     <v>CAD</v>
-    <v>0.72960000000000003</v>
     <v>Currency Pair</v>
-    <v>45219.182349537034</v>
-    <v>0.72809999999999997</v>
+    <v>45219.875</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.72889999999999999</v>
     <v>0.7288</v>
-    <v>0.72919999999999996</v>
+    <v>0.72899999999999998</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -2583,13 +2580,13 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2cqw7&amp;q=OTCM%3aCNSWF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="1">
-    <v>0</v>
+  <rv s="4">
+    <v>9</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
     <v>2</v>
-    <v>9</v>
+    <v>10</v>
     <v>Finance</v>
-    <v>10</v>
+    <v>11</v>
     <v>en-US</v>
     <v>a2cqw7</v>
     <v>268435456</v>
@@ -2597,11 +2594,9 @@
     <v>Powered by Refinitiv</v>
     <v>2198.98</v>
     <v>1301.93</v>
-    <v>0.82679999999999998</v>
-    <v>16.059999999999999</v>
-    <v>7.7880000000000007E-3</v>
-    <v>4.7568999999999999</v>
-    <v>2.2889999999999998E-3</v>
+    <v>0.82650000000000001</v>
+    <v>-1.9450000000000001</v>
+    <v>-9.3590000000000003E-4</v>
     <v>USD</v>
     <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company’s products include Empower LOS, Optimal Blue, NOVA LOS, Reverse Vision, and Axacore. It operates in three principal geographical areas, Canada, the United States, and the United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2609,25 +2604,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2097.14</v>
+    <v>2098.7600000000002</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.838356435153</v>
+    <v>45219.832345635936</v>
     <v>5</v>
-    <v>2040</v>
-    <v>59972030000</v>
+    <v>2061.5700000000002</v>
+    <v>60557130000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2040</v>
-    <v>90.100899999999996</v>
-    <v>2062.0949999999998</v>
+    <v>2086</v>
+    <v>90.802700000000002</v>
     <v>2078.1550000000002</v>
-    <v>2082.9119000000001</v>
+    <v>2076.21</v>
     <v>21191530</v>
     <v>CNSWF</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
-    <v>846</v>
-    <v>23450</v>
+    <v>381</v>
+    <v>24130</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2637,7 +2631,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2710,23 +2704,64 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="3">
     <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2774,7 +2809,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2792,9 +2827,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2803,8 +2835,52 @@
       <v t="s">_DisplayString</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="11">
+  <spbData count="12">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2864,10 +2940,7 @@
       <v>1</v>
     </spb>
     <spb s="7">
-      <v>10</v>
-      <v>10</v>
       <v>3</v>
-      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -2880,7 +2953,12 @@
     <spb s="8">
       <v>GMT</v>
     </spb>
-    <spb s="3">
+    <spb s="0">
+      <v>2</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="9">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2901,25 +2979,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>10</v>
-      <v>10</v>
-      <v>5</v>
     </spb>
-    <spb s="4">
-      <v>at close</v>
+    <spb s="10">
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2979,10 +3051,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -2993,6 +3062,34 @@
     <k n="`%EntityServiceId" t="i"/>
   </s>
   <s>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
@@ -3358,10 +3455,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3930,15 +4027,15 @@
       </c>
       <c r="M16" s="28">
         <f>N102/F3</f>
-        <v>9.1448396319842953</v>
+        <v>9.0745638846270005</v>
       </c>
       <c r="N16" s="28">
         <f>N102/F28</f>
-        <v>39.528151464099217</v>
+        <v>39.224387757180153</v>
       </c>
       <c r="O16" s="30">
         <f>N102/F107</f>
-        <v>45.531675220300755</v>
+        <v>45.181775972932329</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -4035,15 +4132,15 @@
       </c>
       <c r="M19" s="28">
         <f>N102/G3</f>
-        <v>7.5272999431945307</v>
+        <v>7.4694545735239277</v>
       </c>
       <c r="N19" s="29">
         <f>N102/G28</f>
-        <v>34.105163349290379</v>
+        <v>33.843073915296237</v>
       </c>
       <c r="O19" s="30">
         <f>N102/G107</f>
-        <v>28.297723384579438</v>
+        <v>28.080262637383179</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4170,11 +4267,11 @@
       </c>
       <c r="N22" s="42">
         <f>(-1*F98)/N102</f>
-        <v>1.4036332756672968E-3</v>
+        <v>1.4145033713233745E-3</v>
       </c>
       <c r="O22" s="31">
         <f>G107/N102</f>
-        <v>3.5338531881506055E-2</v>
+        <v>3.5612202525082605E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5835,7 +5932,7 @@
       </c>
       <c r="O93" s="71" cm="1">
         <f t="array" ref="O93">_FV(O92,"Price")</f>
-        <v>0.72919999999999996</v>
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5898,7 +5995,7 @@
       </c>
       <c r="N95" s="70">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
       <c r="O95" t="e" vm="3">
         <v>#VALUE!</v>
@@ -5934,11 +6031,11 @@
       </c>
       <c r="N96" s="49" cm="1">
         <f t="array" ref="N96">_FV(A1,"Beta")</f>
-        <v>0.82679999999999998</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="O96" s="71" cm="1">
         <f t="array" ref="O96">_FV(O95,"Price")</f>
-        <v>2078.1550000000002</v>
+        <v>2076.21</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6003,7 +6100,7 @@
       </c>
       <c r="N98" s="47">
         <f>(N95)+((N96)*(N97-N95))</f>
-        <v>7.7941464000000002E-2</v>
+        <v>7.8080179999999999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,7 +6196,7 @@
       </c>
       <c r="N101" s="47">
         <f>N100/N104</f>
-        <v>2.4862672364516551E-2</v>
+        <v>2.5050391993170829E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6132,7 +6229,7 @@
       </c>
       <c r="N102" s="50" cm="1">
         <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
-        <v>60557128043</v>
+        <v>60091762044</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6165,7 +6262,7 @@
       </c>
       <c r="N103" s="47">
         <f>N102/N104</f>
-        <v>0.97513732763548344</v>
+        <v>0.97494960800682917</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6200,7 +6297,7 @@
       </c>
       <c r="N104" s="51">
         <f>N100+N102</f>
-        <v>62101128043</v>
+        <v>61635762044</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6305,7 +6402,7 @@
       </c>
       <c r="N106" s="55">
         <f>(N101*N93)+(N103*N98)</f>
-        <v>7.6896953226358186E-2</v>
+        <v>7.7024308008772496E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6363,7 +6460,7 @@
       <c r="J108" s="73"/>
       <c r="K108" s="59">
         <f>K107*(1+N108)/(N109-N108)</f>
-        <v>60727609898.331764</v>
+        <v>60578949553.943535</v>
       </c>
       <c r="L108" s="60" t="s">
         <v>146</v>
@@ -6394,7 +6491,7 @@
       </c>
       <c r="K109" s="59">
         <f>K108+K107</f>
-        <v>63802320074.372986</v>
+        <v>63653659729.984756</v>
       </c>
       <c r="L109" s="60" t="s">
         <v>143</v>
@@ -6404,7 +6501,7 @@
       </c>
       <c r="N109" s="40">
         <f>N106</f>
-        <v>7.6896953226358186E-2</v>
+        <v>7.7024308008772496E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
@@ -6425,7 +6522,7 @@
       </c>
       <c r="H111" s="50">
         <f>NPV(N109,G109,H109,I109,J109,K109)</f>
-        <v>52334161488.466858</v>
+        <v>52203064732.618126</v>
       </c>
       <c r="I111" s="45"/>
       <c r="J111" s="45"/>
@@ -6470,7 +6567,7 @@
       </c>
       <c r="H114" s="50">
         <f>H111+H112-H113</f>
-        <v>51716161488.466858</v>
+        <v>51585064732.618126</v>
       </c>
       <c r="I114" s="45"/>
       <c r="J114" s="45"/>
@@ -6500,7 +6597,7 @@
       </c>
       <c r="H116" s="65">
         <f>H114/H115</f>
-        <v>2206.9656057007205</v>
+        <v>2201.3711063633787</v>
       </c>
       <c r="I116" s="45"/>
       <c r="J116" s="45"/>
@@ -6515,7 +6612,7 @@
       </c>
       <c r="H117" s="66" cm="1">
         <f t="array" ref="H117">_FV(A1,"Price")</f>
-        <v>2857.61</v>
+        <v>2835.65</v>
       </c>
       <c r="I117" s="45"/>
       <c r="J117" s="45"/>
@@ -6530,7 +6627,7 @@
       </c>
       <c r="H118" s="67">
         <f>H116/H117-1</f>
-        <v>-0.22768831096590492</v>
+        <v>-0.22368024743414083</v>
       </c>
       <c r="I118" s="45"/>
       <c r="J118" s="45"/>

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC503A-6717-774B-8F13-36C9363B50A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A18312-C1C7-714F-B64B-E81D13F50CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2345,16 +2345,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2367,14 +2366,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2383,7 +2382,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2511,9 +2509,9 @@
     <v>Powered by Refinitiv</v>
     <v>2905.4</v>
     <v>1827.33</v>
-    <v>0.82650000000000001</v>
-    <v>-21.96</v>
-    <v>-7.685E-3</v>
+    <v>0.83830000000000005</v>
+    <v>-42.2</v>
+    <v>-1.5547999999999999E-2</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2523,25 +2521,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2863.1</v>
+    <v>2713.56</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.833333333336</v>
+    <v>45226.833333333336</v>
     <v>0</v>
-    <v>2820.01</v>
-    <v>60091762044</v>
+    <v>2667.26</v>
+    <v>56622500000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2849.97</v>
-    <v>94.33</v>
-    <v>2857.61</v>
-    <v>2835.65</v>
-    <v>2835.65</v>
+    <v>2713</v>
+    <v>88.2</v>
+    <v>2714.14</v>
+    <v>2671.94</v>
+    <v>2671.94</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>32963</v>
-    <v>23450</v>
+    <v>27905</v>
+    <v>24950</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2561,15 +2559,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
     <v>0.72030000000000005</v>
-    <v>2.0000000000000001E-4</v>
-    <v>2.744E-4</v>
+    <v>4.0000000000000002E-4</v>
+    <v>5.5460000000000004E-4</v>
     <v>USD</v>
     <v>CAD</v>
+    <v>0.72199999999999998</v>
     <v>Currency Pair</v>
-    <v>45219.875</v>
+    <v>45229.288773148146</v>
+    <v>0.72060000000000002</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.7288</v>
-    <v>0.72899999999999998</v>
+    <v>0.72109999999999996</v>
+    <v>0.72119999999999995</v>
+    <v>0.72160000000000002</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -2593,10 +2594,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2198.98</v>
-    <v>1301.93</v>
-    <v>0.82650000000000001</v>
-    <v>-1.9450000000000001</v>
-    <v>-9.3590000000000003E-4</v>
+    <v>1360</v>
+    <v>0.83830000000000005</v>
+    <v>-39.090000000000003</v>
+    <v>-1.9902E-2</v>
     <v>USD</v>
     <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company’s products include Empower LOS, Optimal Blue, NOVA LOS, Reverse Vision, and Axacore. It operates in three principal geographical areas, Canada, the United States, and the United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2604,24 +2605,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2098.7600000000002</v>
+    <v>1981</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.832345635936</v>
+    <v>45226.83324021953</v>
     <v>5</v>
-    <v>2061.5700000000002</v>
-    <v>60557130000</v>
+    <v>1922.3</v>
+    <v>56622500000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2086</v>
-    <v>90.802700000000002</v>
-    <v>2078.1550000000002</v>
-    <v>2076.21</v>
+    <v>1950</v>
+    <v>84.110699999999994</v>
+    <v>1964.09</v>
+    <v>1925</v>
     <v>21191530</v>
     <v>CNSWF</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
-    <v>381</v>
-    <v>24130</v>
+    <v>371</v>
+    <v>24950</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2704,9 +2705,12 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -2809,7 +2813,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2827,6 +2831,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -2940,7 +2947,10 @@
       <v>1</v>
     </spb>
     <spb s="7">
+      <v>10</v>
+      <v>10</v>
       <v>3</v>
+      <v>10</v>
       <v>10</v>
       <v>10</v>
       <v>5</v>
@@ -3051,7 +3061,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -3455,10 +3468,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
+      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4022,20 +4035,20 @@
         <v>5885000000</v>
       </c>
       <c r="L16" s="26">
-        <f>(F35+E35+D35+C35+B35)/5</f>
-        <v>2.1155833950386775E-2</v>
+        <f>AVERAGE(C35:G35)</f>
+        <v>2.1155833950386772E-2</v>
       </c>
       <c r="M16" s="28">
         <f>N102/F3</f>
-        <v>9.0745638846270005</v>
+        <v>8.5506644518272417</v>
       </c>
       <c r="N16" s="28">
         <f>N102/F28</f>
-        <v>39.224387757180153</v>
+        <v>36.95985639686684</v>
       </c>
       <c r="O16" s="30">
         <f>N102/F107</f>
-        <v>45.181775972932329</v>
+        <v>42.573308270676691</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -4132,15 +4145,15 @@
       </c>
       <c r="M19" s="28">
         <f>N102/G3</f>
-        <v>7.4694545735239277</v>
+        <v>7.03822249844624</v>
       </c>
       <c r="N19" s="29">
         <f>N102/G28</f>
-        <v>33.843073915296237</v>
+        <v>31.889220545167831</v>
       </c>
       <c r="O19" s="30">
         <f>N102/G107</f>
-        <v>28.080262637383179</v>
+        <v>26.459112149532711</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,11 +4280,11 @@
       </c>
       <c r="N22" s="42">
         <f>(-1*F98)/N102</f>
-        <v>1.4145033713233745E-3</v>
+        <v>1.5011700295818799E-3</v>
       </c>
       <c r="O22" s="31">
         <f>G107/N102</f>
-        <v>3.5612202525082605E-2</v>
+        <v>3.7794163097708507E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5932,7 +5945,7 @@
       </c>
       <c r="O93" s="71" cm="1">
         <f t="array" ref="O93">_FV(O92,"Price")</f>
-        <v>0.72899999999999998</v>
+        <v>0.72160000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,7 +6008,7 @@
       </c>
       <c r="N95" s="70">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="O95" t="e" vm="3">
         <v>#VALUE!</v>
@@ -6031,11 +6044,11 @@
       </c>
       <c r="N96" s="49" cm="1">
         <f t="array" ref="N96">_FV(A1,"Beta")</f>
-        <v>0.82650000000000001</v>
+        <v>0.83830000000000005</v>
       </c>
       <c r="O96" s="71" cm="1">
         <f t="array" ref="O96">_FV(O95,"Price")</f>
-        <v>2076.21</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6100,7 +6113,7 @@
       </c>
       <c r="N98" s="47">
         <f>(N95)+((N96)*(N97-N95))</f>
-        <v>7.8080179999999999E-2</v>
+        <v>7.8251565000000009E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6196,7 +6209,7 @@
       </c>
       <c r="N101" s="47">
         <f>N100/N104</f>
-        <v>2.5050391993170829E-2</v>
+        <v>2.6544488666156635E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6229,7 +6242,7 @@
       </c>
       <c r="N102" s="50" cm="1">
         <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
-        <v>60091762044</v>
+        <v>56622500000</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6262,7 +6275,7 @@
       </c>
       <c r="N103" s="47">
         <f>N102/N104</f>
-        <v>0.97494960800682917</v>
+        <v>0.97345551133384334</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6297,7 +6310,7 @@
       </c>
       <c r="N104" s="51">
         <f>N100+N102</f>
-        <v>61635762044</v>
+        <v>58166500000</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6402,7 +6415,7 @@
       </c>
       <c r="N106" s="55">
         <f>(N101*N93)+(N103*N98)</f>
-        <v>7.7024308008772496E-2</v>
+        <v>7.7128167627969327E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6460,7 +6473,7 @@
       <c r="J108" s="73"/>
       <c r="K108" s="59">
         <f>K107*(1+N108)/(N109-N108)</f>
-        <v>60578949553.943535</v>
+        <v>60458252684.701569</v>
       </c>
       <c r="L108" s="60" t="s">
         <v>146</v>
@@ -6491,7 +6504,7 @@
       </c>
       <c r="K109" s="59">
         <f>K108+K107</f>
-        <v>63653659729.984756</v>
+        <v>63532962860.74279</v>
       </c>
       <c r="L109" s="60" t="s">
         <v>143</v>
@@ -6501,7 +6514,7 @@
       </c>
       <c r="N109" s="40">
         <f>N106</f>
-        <v>7.7024308008772496E-2</v>
+        <v>7.7128167627969327E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
@@ -6522,7 +6535,7 @@
       </c>
       <c r="H111" s="50">
         <f>NPV(N109,G109,H109,I109,J109,K109)</f>
-        <v>52203064732.618126</v>
+        <v>52096628674.215897</v>
       </c>
       <c r="I111" s="45"/>
       <c r="J111" s="45"/>
@@ -6567,7 +6580,7 @@
       </c>
       <c r="H114" s="50">
         <f>H111+H112-H113</f>
-        <v>51585064732.618126</v>
+        <v>51478628674.215897</v>
       </c>
       <c r="I114" s="45"/>
       <c r="J114" s="45"/>
@@ -6597,7 +6610,7 @@
       </c>
       <c r="H116" s="65">
         <f>H114/H115</f>
-        <v>2201.3711063633787</v>
+        <v>2196.8289919964327</v>
       </c>
       <c r="I116" s="45"/>
       <c r="J116" s="45"/>
@@ -6612,7 +6625,7 @@
       </c>
       <c r="H117" s="66" cm="1">
         <f t="array" ref="H117">_FV(A1,"Price")</f>
-        <v>2835.65</v>
+        <v>2671.94</v>
       </c>
       <c r="I117" s="45"/>
       <c r="J117" s="45"/>
@@ -6627,7 +6640,7 @@
       </c>
       <c r="H118" s="67">
         <f>H116/H117-1</f>
-        <v>-0.22368024743414083</v>
+        <v>-0.17781499884112939</v>
       </c>
       <c r="I118" s="45"/>
       <c r="J118" s="45"/>

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A18312-C1C7-714F-B64B-E81D13F50CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D29A281-9303-B142-9BE9-BAA0E48C1D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,9 +975,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,6 +1094,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2350,10 +2359,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2370,7 +2378,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2381,7 +2389,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2509,9 +2516,9 @@
     <v>Powered by Refinitiv</v>
     <v>2905.4</v>
     <v>1827.33</v>
-    <v>0.83830000000000005</v>
-    <v>-42.2</v>
-    <v>-1.5547999999999999E-2</v>
+    <v>0.82730000000000004</v>
+    <v>22.16</v>
+    <v>7.8290000000000009E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2521,25 +2528,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2713.56</v>
+    <v>2871.99</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.833333333336</v>
+    <v>45232.833333333336</v>
     <v>0</v>
-    <v>2667.26</v>
-    <v>56622500000</v>
+    <v>2844.75</v>
+    <v>60455408699</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2713</v>
-    <v>88.2</v>
-    <v>2714.14</v>
-    <v>2671.94</v>
-    <v>2671.94</v>
+    <v>2859.96</v>
+    <v>94.18</v>
+    <v>2830.65</v>
+    <v>2852.81</v>
+    <v>2852.81</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>27905</v>
-    <v>24950</v>
+    <v>17363</v>
+    <v>24520</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2558,19 +2565,19 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
-    <v>0.72030000000000005</v>
-    <v>4.0000000000000002E-4</v>
-    <v>5.5460000000000004E-4</v>
+    <v>0.71930000000000005</v>
+    <v>-4.0000000000000002E-4</v>
+    <v>-5.4969999999999997E-4</v>
     <v>USD</v>
     <v>CAD</v>
-    <v>0.72199999999999998</v>
+    <v>0.72840000000000005</v>
     <v>Currency Pair</v>
-    <v>45229.288773148146</v>
-    <v>0.72060000000000002</v>
+    <v>45233.40221064815</v>
+    <v>0.72670000000000001</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.72109999999999996</v>
-    <v>0.72119999999999995</v>
-    <v>0.72160000000000002</v>
+    <v>0.72770000000000001</v>
+    <v>0.72770000000000001</v>
+    <v>0.72729999999999995</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -2595,9 +2602,9 @@
     <v>Powered by Refinitiv</v>
     <v>2198.98</v>
     <v>1360</v>
-    <v>0.83830000000000005</v>
-    <v>-39.090000000000003</v>
-    <v>-1.9902E-2</v>
+    <v>0.82730000000000004</v>
+    <v>40.657600000000002</v>
+    <v>1.9937E-2</v>
     <v>USD</v>
     <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company’s products include Empower LOS, Optimal Blue, NOVA LOS, Reverse Vision, and Axacore. It operates in three principal geographical areas, Canada, the United States, and the United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2605,24 +2612,24 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>1981</v>
+    <v>2087.77</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.83324021953</v>
+    <v>45232.832855034372</v>
     <v>5</v>
-    <v>1922.3</v>
-    <v>56622500000</v>
+    <v>2044.88</v>
+    <v>59985800000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>1950</v>
-    <v>84.110699999999994</v>
-    <v>1964.09</v>
-    <v>1925</v>
+    <v>2065</v>
+    <v>90.880499999999998</v>
+    <v>2039.28</v>
+    <v>2079.9376000000002</v>
     <v>21191530</v>
     <v>CNSWF</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
-    <v>371</v>
-    <v>24950</v>
+    <v>2136</v>
+    <v>24520</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -3468,10 +3475,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3716,13 +3723,13 @@
       <c r="L6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="68" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4040,15 +4047,15 @@
       </c>
       <c r="M16" s="28">
         <f>N102/F3</f>
-        <v>8.5506644518272417</v>
+        <v>9.1294788128964051</v>
       </c>
       <c r="N16" s="28">
         <f>N102/F28</f>
-        <v>36.95985639686684</v>
+        <v>39.461755025456917</v>
       </c>
       <c r="O16" s="30">
         <f>N102/F107</f>
-        <v>42.573308270676691</v>
+        <v>45.455194510526319</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -4145,15 +4152,15 @@
       </c>
       <c r="M19" s="28">
         <f>N102/G3</f>
-        <v>7.03822249844624</v>
+        <v>7.5146561465506529</v>
       </c>
       <c r="N19" s="29">
         <f>N102/G28</f>
-        <v>31.889220545167831</v>
+        <v>34.047876041338142</v>
       </c>
       <c r="O19" s="30">
         <f>N102/G107</f>
-        <v>26.459112149532711</v>
+        <v>28.250190980841122</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4225,27 +4232,27 @@
         <f t="shared" si="11"/>
         <v>0.38175777710661429</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="42">
         <f t="shared" ref="G21:K21" si="12">G19/G3</f>
         <v>0.38175777710661435</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="42">
         <f t="shared" si="12"/>
         <v>0.39716616573636754</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="42">
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <f t="shared" si="12"/>
         <v>0.4017857142857143</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="42">
         <f t="shared" si="12"/>
         <v>0.40833333333333333</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="43" t="s">
         <v>167</v>
       </c>
       <c r="N21" s="19" t="s">
@@ -4278,13 +4285,13 @@
         <f>SUM(G29:K29)/5</f>
         <v>0.11200937884577282</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="41">
         <f>(-1*F98)/N102</f>
-        <v>1.5011700295818799E-3</v>
+        <v>1.405994961066337E-3</v>
       </c>
       <c r="O22" s="31">
         <f>G107/N102</f>
-        <v>3.7794163097708507E-2</v>
+        <v>3.5397990784493662E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5631,16 +5638,16 @@
       <c r="F84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="74" t="s">
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="N84" s="75"/>
+      <c r="N84" s="74"/>
     </row>
     <row r="85" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5661,16 +5668,16 @@
       <c r="F85" s="1">
         <v>90000000</v>
       </c>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="78" t="s">
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="N85" s="78"/>
+      <c r="N85" s="77"/>
     </row>
     <row r="86" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5691,16 +5698,16 @@
       <c r="F86" s="1">
         <v>283000000</v>
       </c>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="37" t="s">
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="N86" s="46">
+      <c r="N86" s="45">
         <f>F17</f>
         <v>78000000</v>
       </c>
@@ -5724,16 +5731,16 @@
       <c r="F87" s="10">
         <v>1297000000</v>
       </c>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="37" t="s">
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="N87" s="46">
+      <c r="N87" s="45">
         <f>F56</f>
         <v>423000000</v>
       </c>
@@ -5757,16 +5764,16 @@
       <c r="F88" s="1">
         <v>-41000000</v>
       </c>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="37" t="s">
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="N88" s="46">
+      <c r="N88" s="45">
         <f>F61</f>
         <v>1121000000</v>
       </c>
@@ -5795,16 +5802,16 @@
         <f>(-1*F88)/F3</f>
         <v>6.1914829356689823E-3</v>
       </c>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="38" t="s">
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="N89" s="47">
+      <c r="N89" s="46">
         <f>N86/(N87+N88)</f>
         <v>5.0518134715025906E-2</v>
       </c>
@@ -5828,16 +5835,16 @@
       <c r="F90" s="1">
         <v>-1663000000</v>
       </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="37" t="s">
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="N90" s="46">
+      <c r="N90" s="45">
         <f>F27</f>
         <v>622000000</v>
       </c>
@@ -5861,16 +5868,16 @@
       <c r="F91" s="1">
         <v>-97000000</v>
       </c>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="37" t="s">
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="46">
+      <c r="N91" s="45">
         <f>F25</f>
         <v>2154000000</v>
       </c>
@@ -5894,16 +5901,16 @@
       <c r="F92" s="1">
         <v>6000000</v>
       </c>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="45"/>
-      <c r="M92" s="38" t="s">
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="N92" s="47">
+      <c r="N92" s="46">
         <f>N90/N91</f>
         <v>0.28876508820798513</v>
       </c>
@@ -5930,22 +5937,22 @@
       <c r="F93" s="1">
         <v>5000000</v>
       </c>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
-      <c r="M93" s="38" t="s">
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="N93" s="47">
+      <c r="N93" s="46">
         <f>N89*(1-N92)</f>
         <v>3.5930261087938578E-2</v>
       </c>
-      <c r="O93" s="71" cm="1">
+      <c r="O93" s="70" cm="1">
         <f t="array" ref="O93">_FV(O92,"Price")</f>
-        <v>0.72160000000000002</v>
+        <v>0.72729999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5967,16 +5974,16 @@
       <c r="F94" s="10">
         <v>-1694000000</v>
       </c>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
-      <c r="M94" s="78" t="s">
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="N94" s="78"/>
+      <c r="N94" s="77"/>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -5997,18 +6004,18 @@
       <c r="F95" s="1">
         <v>-89000000</v>
       </c>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="37" t="s">
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="N95" s="70">
+      <c r="N95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="O95" t="e" vm="3">
         <v>#VALUE!</v>
@@ -6033,22 +6040,22 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="37" t="s">
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="N96" s="49" cm="1">
+      <c r="N96" s="48" cm="1">
         <f t="array" ref="N96">_FV(A1,"Beta")</f>
-        <v>0.83830000000000005</v>
-      </c>
-      <c r="O96" s="71" cm="1">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="O96" s="70" cm="1">
         <f t="array" ref="O96">_FV(O95,"Price")</f>
-        <v>1925</v>
+        <v>2079.9376000000002</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6070,16 +6077,16 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
-      <c r="M97" s="37" t="s">
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="N97" s="48">
+      <c r="N97" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6102,18 +6109,18 @@
       <c r="F98" s="1">
         <v>-85000000</v>
       </c>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="38" t="s">
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="N98" s="47">
+      <c r="N98" s="46">
         <f>(N95)+((N96)*(N97-N95))</f>
-        <v>7.8251565000000009E-2</v>
+        <v>7.7912325000000004E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6135,16 +6142,16 @@
       <c r="F99" s="1">
         <v>222000000</v>
       </c>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="45"/>
-      <c r="M99" s="78" t="s">
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="N99" s="78"/>
+      <c r="N99" s="77"/>
     </row>
     <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6165,16 +6172,16 @@
       <c r="F100" s="10">
         <v>-90000000</v>
       </c>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="37" t="s">
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N100" s="46">
+      <c r="N100" s="45">
         <f>N87+N88</f>
         <v>1544000000</v>
       </c>
@@ -6198,18 +6205,18 @@
       <c r="F101" s="1">
         <v>-79000000</v>
       </c>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="38" t="s">
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="44"/>
+      <c r="M101" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="N101" s="47">
+      <c r="N101" s="46">
         <f>N100/N104</f>
-        <v>2.6544488666156635E-2</v>
+        <v>2.4903463313592916E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6231,18 +6238,18 @@
       <c r="F102" s="10">
         <v>48000000</v>
       </c>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="37" t="s">
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="N102" s="50" cm="1">
+      <c r="N102" s="49" cm="1">
         <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
-        <v>56622500000</v>
+        <v>60455408699</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6264,18 +6271,18 @@
       <c r="F103" s="1">
         <v>763000000</v>
       </c>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="45"/>
-      <c r="M103" s="38" t="s">
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="44"/>
+      <c r="M103" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="N103" s="47">
+      <c r="N103" s="46">
         <f>N102/N104</f>
-        <v>0.97345551133384334</v>
+        <v>0.97509653668640706</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6297,372 +6304,372 @@
       <c r="F104" s="11">
         <v>811000000</v>
       </c>
-      <c r="G104" s="76" t="s">
+      <c r="G104" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="38" t="s">
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="75"/>
+      <c r="K104" s="75"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="N104" s="51">
+      <c r="N104" s="50">
         <f>N100+N102</f>
-        <v>58166500000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+        <v>61999408699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="78">
         <f>(B22*(1-$N$92))+B77+B88+B81</f>
         <v>1268491829.1550603</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="78">
         <f>(C22*(1-$N$92))+C77+C88+C81</f>
         <v>1465125348.1894152</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="78">
         <f>(D22*(1-$N$92))+D77+D88+D81</f>
         <v>1792318477.2516251</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="78">
         <f>(E22*(1-$N$92))+E77+E88+E81</f>
         <v>2024838440.1114206</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="78">
         <f>(F22*(1-$N$92))+F77+F88+F81</f>
         <v>2240042711.2349119</v>
       </c>
-      <c r="G105" s="72">
+      <c r="G105" s="71">
         <f>G107/G3</f>
         <v>0.26600372902423863</v>
       </c>
-      <c r="H105" s="72">
+      <c r="H105" s="71">
         <f>H107/H3</f>
         <v>0.25622584800343495</v>
       </c>
-      <c r="I105" s="72">
+      <c r="I105" s="71">
         <f>I107/I3</f>
         <v>0.25622584800343495</v>
       </c>
-      <c r="J105" s="72">
+      <c r="J105" s="71">
         <f>J107/J3</f>
         <v>0.25622584800343495</v>
       </c>
-      <c r="K105" s="72">
+      <c r="K105" s="71">
         <f>K107/K3</f>
         <v>0.25622584800343495</v>
       </c>
-      <c r="L105" s="52" t="s">
+      <c r="L105" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="M105" s="78" t="s">
+      <c r="M105" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="N105" s="78"/>
-    </row>
-    <row r="106" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
+      <c r="N105" s="77"/>
+    </row>
+    <row r="106" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="A106" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="15">
+      <c r="B106" s="78"/>
+      <c r="C106" s="79">
         <f t="shared" ref="C106:K106" si="19">(C107/B107)-1</f>
         <v>0.15124862572640185</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="79">
         <f t="shared" si="19"/>
         <v>0.58390177353342421</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="79">
         <f t="shared" si="19"/>
         <v>9.4745908699397141E-2</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="79">
         <f t="shared" si="19"/>
         <v>4.6420141620771016E-2</v>
       </c>
-      <c r="G106" s="53">
+      <c r="G106" s="52">
         <f t="shared" si="19"/>
         <v>0.60902255639097747</v>
       </c>
-      <c r="H106" s="53">
+      <c r="H106" s="52">
         <f t="shared" si="19"/>
         <v>0.11542056074766349</v>
       </c>
-      <c r="I106" s="53">
+      <c r="I106" s="52">
         <f t="shared" si="19"/>
         <v>0.10025762129669391</v>
       </c>
-      <c r="J106" s="53">
+      <c r="J106" s="52">
         <f t="shared" si="19"/>
         <v>9.2682926829268375E-2</v>
       </c>
-      <c r="K106" s="53">
+      <c r="K106" s="52">
         <f t="shared" si="19"/>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="L106" s="54">
+      <c r="L106" s="53">
         <f>SUM(G106:K106)/5</f>
         <v>0.19776244733863493</v>
       </c>
-      <c r="M106" s="39" t="s">
+      <c r="M106" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="N106" s="55">
+      <c r="N106" s="54">
         <f>(N101*N93)+(N103*N98)</f>
-        <v>7.7128167627969327E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="36" t="s">
+        <v>7.6866826211537065E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="A107" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="78">
         <v>636700000</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="78">
         <v>733000000</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="78">
         <v>1161000000</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="78">
         <v>1271000000</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="78">
         <v>1330000000</v>
       </c>
-      <c r="G107" s="56">
+      <c r="G107" s="55">
         <v>2140000000</v>
       </c>
-      <c r="H107" s="56">
+      <c r="H107" s="55">
         <v>2387000000</v>
       </c>
-      <c r="I107" s="56">
+      <c r="I107" s="55">
         <f>+H107*(1+I4)</f>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J107" s="56">
+      <c r="J107" s="55">
         <f>+I107*(1+J4)</f>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K107" s="56">
+      <c r="K107" s="55">
         <f>+J107*(1+K4)</f>
         <v>3074710176.0412197</v>
       </c>
-      <c r="L107" s="57" t="s">
+      <c r="L107" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="M107" s="58" t="s">
+      <c r="M107" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="N107" s="40">
+      <c r="N107" s="39">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.12744904157340961</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
-      <c r="K108" s="59">
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="58">
         <f>K107*(1+N108)/(N109-N108)</f>
-        <v>60458252684.701569</v>
-      </c>
-      <c r="L108" s="60" t="s">
+        <v>60762883728.197441</v>
+      </c>
+      <c r="L108" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="61" t="s">
+      <c r="M108" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="N108" s="41">
+      <c r="N108" s="40">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="G109" s="59">
+      <c r="G109" s="58">
         <f>G108+G107</f>
         <v>2140000000</v>
       </c>
-      <c r="H109" s="59">
+      <c r="H109" s="58">
         <f>H108+H107</f>
         <v>2387000000</v>
       </c>
-      <c r="I109" s="59">
+      <c r="I109" s="58">
         <f>I108+I107</f>
         <v>2626314942.0352082</v>
       </c>
-      <c r="J109" s="59">
+      <c r="J109" s="58">
         <f>J108+J107</f>
         <v>2869729497.6384716</v>
       </c>
-      <c r="K109" s="59">
+      <c r="K109" s="58">
         <f>K108+K107</f>
-        <v>63532962860.74279</v>
-      </c>
-      <c r="L109" s="60" t="s">
+        <v>63837593904.238663</v>
+      </c>
+      <c r="L109" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="M109" s="62" t="s">
+      <c r="M109" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="N109" s="40">
+      <c r="N109" s="39">
         <f>N106</f>
-        <v>7.7128167627969327E-2</v>
+        <v>7.6866826211537065E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="G110" s="77" t="s">
+      <c r="G110" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="H110" s="77"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="45"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="44"/>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G111" s="63" t="s">
+      <c r="G111" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="H111" s="50">
+      <c r="H111" s="49">
         <f>NPV(N109,G109,H109,I109,J109,K109)</f>
-        <v>52096628674.215897</v>
-      </c>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="45"/>
+        <v>52365268061.390038</v>
+      </c>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G112" s="63" t="s">
+      <c r="G112" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="H112" s="50">
+      <c r="H112" s="49">
         <f>F40</f>
         <v>926000000</v>
       </c>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="45"/>
-      <c r="M112" s="45"/>
-      <c r="N112" s="45"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+      <c r="N112" s="44"/>
     </row>
     <row r="113" spans="7:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G113" s="63" t="s">
+      <c r="G113" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="H113" s="50">
+      <c r="H113" s="49">
         <f>N100</f>
         <v>1544000000</v>
       </c>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-      <c r="N113" s="45"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+      <c r="N113" s="44"/>
     </row>
     <row r="114" spans="7:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G114" s="63" t="s">
+      <c r="G114" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="H114" s="50">
+      <c r="H114" s="49">
         <f>H111+H112-H113</f>
-        <v>51478628674.215897</v>
-      </c>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="45"/>
+        <v>51747268061.390038</v>
+      </c>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+      <c r="N114" s="44"/>
     </row>
     <row r="115" spans="7:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G115" s="63" t="s">
+      <c r="G115" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H115" s="63">
+      <c r="H115" s="62">
         <f>F34*(1+(5*L16))</f>
         <v>23433152.449173201</v>
       </c>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="45"/>
-      <c r="M115" s="45"/>
-      <c r="N115" s="45"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+      <c r="N115" s="44"/>
     </row>
     <row r="116" spans="7:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G116" s="64" t="s">
+      <c r="G116" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="H116" s="65">
+      <c r="H116" s="64">
         <f>H114/H115</f>
-        <v>2196.8289919964327</v>
-      </c>
-      <c r="I116" s="45"/>
-      <c r="J116" s="45"/>
-      <c r="K116" s="45"/>
-      <c r="L116" s="45"/>
-      <c r="M116" s="45"/>
-      <c r="N116" s="45"/>
+        <v>2208.293065716638</v>
+      </c>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
     </row>
     <row r="117" spans="7:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G117" s="63" t="s">
+      <c r="G117" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H117" s="66" cm="1">
+      <c r="H117" s="65" cm="1">
         <f t="array" ref="H117">_FV(A1,"Price")</f>
-        <v>2671.94</v>
-      </c>
-      <c r="I117" s="45"/>
-      <c r="J117" s="45"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="45"/>
+        <v>2852.81</v>
+      </c>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="44"/>
     </row>
     <row r="118" spans="7:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G118" s="64" t="s">
+      <c r="G118" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="H118" s="67">
+      <c r="H118" s="66">
         <f>H116/H117-1</f>
-        <v>-0.17781499884112939</v>
-      </c>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="45"/>
+        <v>-0.22592354004765891</v>
+      </c>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="44"/>
     </row>
     <row r="119" spans="7:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="G119" s="64" t="s">
+      <c r="G119" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="H119" s="68" t="str">
+      <c r="H119" s="67" t="str">
         <f>IF(H116&gt;H117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="45"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D29A281-9303-B142-9BE9-BAA0E48C1D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F38FF-C851-2A46-9516-FC198783D2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1080,6 +1080,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,18 +1106,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2361,6 +2361,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2378,7 +2379,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2389,6 +2390,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2514,11 +2516,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2905.4</v>
-    <v>1827.33</v>
-    <v>0.82730000000000004</v>
-    <v>22.16</v>
-    <v>7.8290000000000009E-3</v>
+    <v>2976.1</v>
+    <v>1854.24</v>
+    <v>0.82830000000000004</v>
+    <v>-0.46</v>
+    <v>-1.5720000000000003E-4</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2528,25 +2530,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2871.99</v>
+    <v>2976.1</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.833333333336</v>
+    <v>45239.898923611108</v>
     <v>0</v>
-    <v>2844.75</v>
-    <v>60455408699</v>
+    <v>2917.25</v>
+    <v>61985013334</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2859.96</v>
-    <v>94.18</v>
-    <v>2830.65</v>
-    <v>2852.81</v>
-    <v>2852.81</v>
+    <v>2923.84</v>
+    <v>96.57</v>
+    <v>2925.45</v>
+    <v>2924.99</v>
+    <v>2924.99</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>17363</v>
-    <v>24520</v>
+    <v>19737</v>
+    <v>24060</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2566,18 +2568,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
     <v>0.71930000000000005</v>
-    <v>-4.0000000000000002E-4</v>
-    <v>-5.4969999999999997E-4</v>
+    <v>-1E-4</v>
+    <v>-1.381E-4</v>
     <v>USD</v>
     <v>CAD</v>
-    <v>0.72840000000000005</v>
+    <v>0.72440000000000004</v>
     <v>Currency Pair</v>
-    <v>45233.40221064815</v>
-    <v>0.72670000000000001</v>
+    <v>45239.966284722221</v>
+    <v>0.72409999999999997</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.72770000000000001</v>
-    <v>0.72770000000000001</v>
-    <v>0.72729999999999995</v>
+    <v>0.72409999999999997</v>
+    <v>0.72419999999999995</v>
+    <v>0.72409999999999997</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -2588,23 +2590,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2cqw7&amp;q=OTCM%3aCNSWF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="4">
-    <v>9</v>
+  <rv s="1">
+    <v>0</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
     <v>2</v>
+    <v>9</v>
+    <v>Finance</v>
     <v>10</v>
-    <v>Finance</v>
-    <v>11</v>
     <v>en-US</v>
     <v>a2cqw7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2198.98</v>
-    <v>1360</v>
-    <v>0.82730000000000004</v>
-    <v>40.657600000000002</v>
-    <v>1.9937E-2</v>
+    <v>1388.74</v>
+    <v>0.82830000000000004</v>
+    <v>8.0055999999999994</v>
+    <v>3.7959999999999999E-3</v>
+    <v>13.9376</v>
+    <v>6.5839999999999996E-3</v>
     <v>USD</v>
     <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company’s products include Empower LOS, Optimal Blue, NOVA LOS, Reverse Vision, and Axacore. It operates in three principal geographical areas, Canada, the United States, and the United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2612,24 +2616,25 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2087.77</v>
+    <v>2172.92</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.832855034372</v>
+    <v>45239.930555555555</v>
     <v>5</v>
-    <v>2044.88</v>
-    <v>59985800000</v>
+    <v>2117.0056</v>
+    <v>61994760000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2065</v>
-    <v>90.880499999999998</v>
-    <v>2039.28</v>
-    <v>2079.9376000000002</v>
+    <v>2117.4050000000002</v>
+    <v>92.150400000000005</v>
+    <v>2109</v>
+    <v>2117.0056</v>
+    <v>2130.9432000000002</v>
     <v>21191530</v>
     <v>CNSWF</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
-    <v>2136</v>
-    <v>24520</v>
+    <v>406</v>
+    <v>24060</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2639,7 +2644,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2723,56 +2728,12 @@
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="3">
+  <spbArrays count="2">
     <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2849,52 +2810,8 @@
       <v t="s">_DisplayString</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="42">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="12">
+  <spbData count="11">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2970,12 +2887,7 @@
     <spb s="8">
       <v>GMT</v>
     </spb>
-    <spb s="0">
-      <v>2</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="9">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2996,19 +2908,25 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="10">
-      <v>Delayed 15 minutes</v>
+    <spb s="4">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -3082,34 +3000,6 @@
     <k n="`%EntityServiceId" t="i"/>
   </s>
   <s>
-    <k n="Last trade time" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
   </s>
 </spbStructures>
@@ -3475,10 +3365,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomRight" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4047,15 +3937,15 @@
       </c>
       <c r="M16" s="28">
         <f>N102/F3</f>
-        <v>9.1294788128964051</v>
+        <v>9.3604671298701305</v>
       </c>
       <c r="N16" s="28">
         <f>N102/F28</f>
-        <v>39.461755025456917</v>
+        <v>40.460191471279373</v>
       </c>
       <c r="O16" s="30">
         <f>N102/F107</f>
-        <v>45.455194510526319</v>
+        <v>46.60527318345865</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -4152,15 +4042,15 @@
       </c>
       <c r="M19" s="28">
         <f>N102/G3</f>
-        <v>7.5146561465506529</v>
+        <v>7.7047872385332505</v>
       </c>
       <c r="N19" s="29">
         <f>N102/G28</f>
-        <v>34.047876041338142</v>
+        <v>34.909333934444696</v>
       </c>
       <c r="O19" s="30">
         <f>N102/G107</f>
-        <v>28.250190980841122</v>
+        <v>28.96495950186916</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4287,11 +4177,11 @@
       </c>
       <c r="N22" s="41">
         <f>(-1*F98)/N102</f>
-        <v>1.405994961066337E-3</v>
+        <v>1.3712992129563007E-3</v>
       </c>
       <c r="O22" s="31">
         <f>G107/N102</f>
-        <v>3.5397990784493662E-2</v>
+        <v>3.4524474302664511E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5644,10 +5534,10 @@
       <c r="J84" s="44"/>
       <c r="K84" s="44"/>
       <c r="L84" s="44"/>
-      <c r="M84" s="73" t="s">
+      <c r="M84" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="N84" s="74"/>
+      <c r="N84" s="78"/>
     </row>
     <row r="85" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5674,10 +5564,10 @@
       <c r="J85" s="44"/>
       <c r="K85" s="44"/>
       <c r="L85" s="44"/>
-      <c r="M85" s="77" t="s">
+      <c r="M85" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="N85" s="77"/>
+      <c r="N85" s="81"/>
     </row>
     <row r="86" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5952,7 +5842,7 @@
       </c>
       <c r="O93" s="70" cm="1">
         <f t="array" ref="O93">_FV(O92,"Price")</f>
-        <v>0.72729999999999995</v>
+        <v>0.72409999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5980,10 +5870,10 @@
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
       <c r="L94" s="44"/>
-      <c r="M94" s="77" t="s">
+      <c r="M94" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="N94" s="77"/>
+      <c r="N94" s="81"/>
     </row>
     <row r="95" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -6015,7 +5905,7 @@
       </c>
       <c r="N95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="O95" t="e" vm="3">
         <v>#VALUE!</v>
@@ -6051,11 +5941,11 @@
       </c>
       <c r="N96" s="48" cm="1">
         <f t="array" ref="N96">_FV(A1,"Beta")</f>
-        <v>0.82730000000000004</v>
+        <v>0.82830000000000004</v>
       </c>
       <c r="O96" s="70" cm="1">
         <f t="array" ref="O96">_FV(O95,"Price")</f>
-        <v>2079.9376000000002</v>
+        <v>2117.0056</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6120,7 +6010,7 @@
       </c>
       <c r="N98" s="46">
         <f>(N95)+((N96)*(N97-N95))</f>
-        <v>7.7912325000000004E-2</v>
+        <v>7.7425607000000007E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6148,10 +6038,10 @@
       <c r="J99" s="44"/>
       <c r="K99" s="44"/>
       <c r="L99" s="44"/>
-      <c r="M99" s="77" t="s">
+      <c r="M99" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="N99" s="77"/>
+      <c r="N99" s="81"/>
     </row>
     <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -6216,7 +6106,7 @@
       </c>
       <c r="N101" s="46">
         <f>N100/N104</f>
-        <v>2.4903463313592916E-2</v>
+        <v>2.4303856127632771E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6249,7 +6139,7 @@
       </c>
       <c r="N102" s="49" cm="1">
         <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
-        <v>60455408699</v>
+        <v>61985013334</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -6282,7 +6172,7 @@
       </c>
       <c r="N103" s="46">
         <f>N102/N104</f>
-        <v>0.97509653668640706</v>
+        <v>0.97569614387236725</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6304,43 +6194,43 @@
       <c r="F104" s="11">
         <v>811000000</v>
       </c>
-      <c r="G104" s="75" t="s">
+      <c r="G104" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="H104" s="75"/>
-      <c r="I104" s="75"/>
-      <c r="J104" s="75"/>
-      <c r="K104" s="75"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="79"/>
+      <c r="K104" s="79"/>
       <c r="L104" s="44"/>
       <c r="M104" s="37" t="s">
         <v>143</v>
       </c>
       <c r="N104" s="50">
         <f>N100+N102</f>
-        <v>61999408699</v>
+        <v>63529013334</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="80" t="s">
+      <c r="A105" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="B105" s="78">
+      <c r="B105" s="73">
         <f>(B22*(1-$N$92))+B77+B88+B81</f>
         <v>1268491829.1550603</v>
       </c>
-      <c r="C105" s="78">
+      <c r="C105" s="73">
         <f>(C22*(1-$N$92))+C77+C88+C81</f>
         <v>1465125348.1894152</v>
       </c>
-      <c r="D105" s="78">
+      <c r="D105" s="73">
         <f>(D22*(1-$N$92))+D77+D88+D81</f>
         <v>1792318477.2516251</v>
       </c>
-      <c r="E105" s="78">
+      <c r="E105" s="73">
         <f>(E22*(1-$N$92))+E77+E88+E81</f>
         <v>2024838440.1114206</v>
       </c>
-      <c r="F105" s="78">
+      <c r="F105" s="73">
         <f>(F22*(1-$N$92))+F77+F88+F81</f>
         <v>2240042711.2349119</v>
       </c>
@@ -6367,29 +6257,29 @@
       <c r="L105" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="M105" s="77" t="s">
+      <c r="M105" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="N105" s="77"/>
+      <c r="N105" s="81"/>
     </row>
     <row r="106" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="79">
+      <c r="B106" s="73"/>
+      <c r="C106" s="74">
         <f t="shared" ref="C106:K106" si="19">(C107/B107)-1</f>
         <v>0.15124862572640185</v>
       </c>
-      <c r="D106" s="79">
+      <c r="D106" s="74">
         <f t="shared" si="19"/>
         <v>0.58390177353342421</v>
       </c>
-      <c r="E106" s="79">
+      <c r="E106" s="74">
         <f t="shared" si="19"/>
         <v>9.4745908699397141E-2</v>
       </c>
-      <c r="F106" s="79">
+      <c r="F106" s="74">
         <f t="shared" si="19"/>
         <v>4.6420141620771016E-2</v>
       </c>
@@ -6422,26 +6312,26 @@
       </c>
       <c r="N106" s="54">
         <f>(N101*N93)+(N103*N98)</f>
-        <v>7.6866826211537065E-2</v>
+        <v>7.6417110082986919E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="A107" s="81" t="s">
+      <c r="A107" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="78">
+      <c r="B107" s="73">
         <v>636700000</v>
       </c>
-      <c r="C107" s="78">
+      <c r="C107" s="73">
         <v>733000000</v>
       </c>
-      <c r="D107" s="78">
+      <c r="D107" s="73">
         <v>1161000000</v>
       </c>
-      <c r="E107" s="78">
+      <c r="E107" s="73">
         <v>1271000000</v>
       </c>
-      <c r="F107" s="78">
+      <c r="F107" s="73">
         <v>1330000000</v>
       </c>
       <c r="G107" s="55">
@@ -6480,7 +6370,7 @@
       <c r="J108" s="72"/>
       <c r="K108" s="58">
         <f>K107*(1+N108)/(N109-N108)</f>
-        <v>60762883728.197441</v>
+        <v>61294342007.079376</v>
       </c>
       <c r="L108" s="59" t="s">
         <v>146</v>
@@ -6511,7 +6401,7 @@
       </c>
       <c r="K109" s="58">
         <f>K108+K107</f>
-        <v>63837593904.238663</v>
+        <v>64369052183.120598</v>
       </c>
       <c r="L109" s="59" t="s">
         <v>143</v>
@@ -6521,14 +6411,14 @@
       </c>
       <c r="N109" s="39">
         <f>N106</f>
-        <v>7.6866826211537065E-2</v>
+        <v>7.6417110082986919E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
-      <c r="G110" s="76" t="s">
+      <c r="G110" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="H110" s="76"/>
+      <c r="H110" s="80"/>
       <c r="I110" s="44"/>
       <c r="J110" s="44"/>
       <c r="K110" s="44"/>
@@ -6542,7 +6432,7 @@
       </c>
       <c r="H111" s="49">
         <f>NPV(N109,G109,H109,I109,J109,K109)</f>
-        <v>52365268061.390038</v>
+        <v>52833948773.474442</v>
       </c>
       <c r="I111" s="44"/>
       <c r="J111" s="44"/>
@@ -6587,7 +6477,7 @@
       </c>
       <c r="H114" s="49">
         <f>H111+H112-H113</f>
-        <v>51747268061.390038</v>
+        <v>52215948773.474442</v>
       </c>
       <c r="I114" s="44"/>
       <c r="J114" s="44"/>
@@ -6617,7 +6507,7 @@
       </c>
       <c r="H116" s="64">
         <f>H114/H115</f>
-        <v>2208.293065716638</v>
+        <v>2228.2938194820986</v>
       </c>
       <c r="I116" s="44"/>
       <c r="J116" s="44"/>
@@ -6632,7 +6522,7 @@
       </c>
       <c r="H117" s="65" cm="1">
         <f t="array" ref="H117">_FV(A1,"Price")</f>
-        <v>2852.81</v>
+        <v>2924.99</v>
       </c>
       <c r="I117" s="44"/>
       <c r="J117" s="44"/>
@@ -6647,7 +6537,7 @@
       </c>
       <c r="H118" s="66">
         <f>H116/H117-1</f>
-        <v>-0.22592354004765891</v>
+        <v>-0.23818754269857378</v>
       </c>
       <c r="I118" s="44"/>
       <c r="J118" s="44"/>

--- a/Technology/Software/Constellation Software.xlsx
+++ b/Technology/Software/Constellation Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A08B25-A191-A146-BD0F-56526223B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E60D413-E012-5041-B269-8DA212EDABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1781,6 +1781,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1800,7 +1802,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1813,6 +1815,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1938,11 +1942,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>3231.2</v>
+    <v>3299.29</v>
     <v>2065.73</v>
-    <v>0.85809999999999997</v>
-    <v>38.700000000000003</v>
-    <v>1.2142E-2</v>
+    <v>0.85780000000000001</v>
+    <v>19.16</v>
+    <v>5.8540000000000007E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -1952,25 +1956,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>3230.29</v>
+    <v>3299.29</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.875</v>
+    <v>45268.875</v>
     <v>0</v>
-    <v>3156.17</v>
-    <v>68363875780</v>
+    <v>3255.31</v>
+    <v>69761457183</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>3160.04</v>
-    <v>94.5792</v>
-    <v>3187.3</v>
-    <v>3226</v>
-    <v>3226</v>
+    <v>3263.22</v>
+    <v>97.116100000000003</v>
+    <v>3272.79</v>
+    <v>3291.95</v>
+    <v>3291.95</v>
     <v>21191530</v>
     <v>CSU</v>
     <v>Constellation Software Inc. (XTSE:CSU)</v>
-    <v>27685</v>
-    <v>28690</v>
+    <v>15200</v>
+    <v>36430</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -1980,23 +1984,25 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a2cqw7&amp;q=OTCM%3aCNSWF&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
-    <v>5</v>
+  <rv s="1">
+    <v>0</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
     <v>2</v>
+    <v>5</v>
+    <v>Finance</v>
     <v>6</v>
-    <v>Finance</v>
-    <v>7</v>
     <v>en-US</v>
     <v>a2cqw7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2395</v>
-    <v>1455.38</v>
-    <v>0.85809999999999997</v>
-    <v>23.07</v>
-    <v>9.8169999999999993E-3</v>
+    <v>2499.9899999999998</v>
+    <v>1520</v>
+    <v>0.85780000000000001</v>
+    <v>22.73</v>
+    <v>9.4149999999999998E-3</v>
+    <v>-20.226299999999998</v>
+    <v>-8.3000000000000001E-3</v>
     <v>USD</v>
     <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company’s products include Empower LOS, Optimal Blue, NOVA LOS, Reverse Vision, and Axacore. It operates in three principal geographical areas, Canada, the United States, and the United Kingdom/Europe.</v>
     <v>45000</v>
@@ -2004,36 +2010,37 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>2395</v>
+    <v>2449</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.863912615627</v>
+    <v>45269.048611111109</v>
     <v>3</v>
-    <v>2329</v>
-    <v>67543770000</v>
+    <v>2401.98</v>
+    <v>69355430000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>2395</v>
-    <v>94.677000000000007</v>
-    <v>2350</v>
-    <v>2373.0700000000002</v>
+    <v>2449</v>
+    <v>97.260300000000001</v>
+    <v>2414.12</v>
+    <v>2436.85</v>
+    <v>2416.6237000000001</v>
     <v>21191530</v>
     <v>CNSWF</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
-    <v>379</v>
-    <v>28690</v>
+    <v>521</v>
+    <v>36430</v>
     <v>2002</v>
   </rv>
   <rv s="2">
     <v>4</v>
   </rv>
-  <rv s="4">
+  <rv s="3">
+    <v>7</v>
+    <v>CAD/USD</v>
     <v>8</v>
-    <v>CAD/USD</v>
     <v>9</v>
+    <v>Finance</v>
     <v>10</v>
-    <v>Finance</v>
-    <v>11</v>
     <v>en-US</v>
     <v>av3wnm</v>
     <v>268435456</v>
@@ -2041,15 +2048,15 @@
     <v>Powered by Refinitiv</v>
     <v>0.76380000000000003</v>
     <v>0.71930000000000005</v>
-    <v>3.3E-3</v>
-    <v>4.4749999999999998E-3</v>
+    <v>5.0000000000000001E-4</v>
+    <v>6.8000000000000005E-4</v>
     <v>USD</v>
     <v>CAD</v>
     <v>Currency Pair</v>
-    <v>45261.916666666664</v>
+    <v>45268.916666666664</v>
     <v>Canadian Dollar/US Dollar FX Cross Rate</v>
-    <v>0.73740000000000006</v>
-    <v>0.74070000000000003</v>
+    <v>0.73529999999999995</v>
+    <v>0.73580000000000001</v>
     <v>CADUSD</v>
     <v>CAD/USD</v>
   </rv>
@@ -2060,7 +2067,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2129,50 +2136,6 @@
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
-    <k n="Beta"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Currency" t="s"/>
-    <k n="Description" t="s"/>
-    <k n="Employees"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="ExchangeID" t="s"/>
-    <k n="Headquarters" t="s"/>
-    <k n="High"/>
-    <k n="Industry" t="s"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Official name" t="s"/>
-    <k n="Open"/>
-    <k n="P/E"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Shares outstanding"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-    <k n="Volume average"/>
-    <k n="Year incorporated"/>
-  </s>
-  <s t="_linkedentitycore">
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
@@ -2190,7 +2153,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="3">
+  <spbArrays count="2">
     <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2212,50 +2175,6 @@
       <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
       <v t="s">Change % (Extended hours)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Volume average</v>
-      <v t="s">Market cap</v>
-      <v t="s">Beta</v>
-      <v t="s">P/E</v>
-      <v t="s">Shares outstanding</v>
-      <v t="s">Description</v>
-      <v t="s">Employees</v>
-      <v t="s">Headquarters</v>
-      <v t="s">Industry</v>
-      <v t="s">Instrument type</v>
-      <v t="s">Year incorporated</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">ExchangeID</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
-    <a count="42">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Exchange</v>
-      <v t="s">Official name</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Change (%)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2309,7 +2228,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="12">
+  <spbData count="11">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2360,12 +2279,7 @@
       <v>from close</v>
       <v>from close</v>
     </spb>
-    <spb s="0">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="5">
+    <spb s="3">
       <v>10</v>
       <v>2</v>
       <v>2</v>
@@ -2386,22 +2300,28 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>10</v>
+      <v>10</v>
+      <v>5</v>
     </spb>
-    <spb s="6">
-      <v>Delayed 15 minutes</v>
+    <spb s="4">
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
-    <spb s="7">
-      <v>2</v>
+    <spb s="5">
+      <v>1</v>
       <v>Name</v>
     </spb>
-    <spb s="8">
+    <spb s="6">
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="9">
+    <spb s="7">
       <v>3</v>
       <v>10</v>
       <v>10</v>
@@ -2412,7 +2332,7 @@
       <v>7</v>
       <v>9</v>
     </spb>
-    <spb s="10">
+    <spb s="8">
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2420,7 +2340,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="11">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -2470,34 +2390,6 @@
     <k n="Price (Extended hours)" t="s"/>
     <k n="Change (Extended hours)" t="s"/>
     <k n="Change % (Extended hours)" t="s"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
-    <k n="Beta" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Employees" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="Year incorporated" t="i"/>
-    <k n="`%EntityServiceId" t="i"/>
-    <k n="Shares outstanding" t="i"/>
-  </s>
-  <s>
-    <k n="Price" t="s"/>
-    <k n="Change" t="s"/>
-    <k n="Change (%)" t="s"/>
-    <k n="Last trade time" t="s"/>
   </s>
   <s>
     <k n="^Order" t="spba"/>
@@ -2908,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
@@ -14410,7 +14302,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14463,7 +14355,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>49806775998</v>
+        <v>50997047679</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14483,7 +14375,7 @@
         <v>203</v>
       </c>
       <c r="G3" s="38">
-        <f>AVERAGE(Financials!N129:S129)</f>
+        <f>AVERAGE(Financials!J129:O129)</f>
         <v>0</v>
       </c>
       <c r="H3" s="37" t="s">
@@ -14491,14 +14383,14 @@
       </c>
       <c r="I3" s="98">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>46904821000.005768</v>
+        <v>46514464166.013969</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="103">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.2316842994307313E-3</v>
+        <v>2.1795967621429883E-3</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>206</v>
@@ -14543,14 +14435,14 @@
       </c>
       <c r="I4" s="99">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>39528518633.832542</v>
+        <v>39185551504.762886</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="100" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.8169999999999993E-3</v>
+        <v>9.4149999999999998E-3</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>213</v>
@@ -14595,14 +14487,14 @@
       </c>
       <c r="I5" s="99">
         <f>I4+G5-G6</f>
-        <v>37204891633.832542</v>
+        <v>36861924504.762886</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="104" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2373.0700000000002</v>
+        <v>2436.85</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>220</v>
@@ -14622,7 +14514,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <f>O20/F10</f>
-        <v>4.3457618007154695</v>
+        <v>4.4496158868336098</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14650,14 +14542,14 @@
       </c>
       <c r="I6" s="102">
         <f>N25</f>
-        <v>9.2743569472306664E-2</v>
+        <v>9.3312084358517788E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="105">
         <f>I5/G4</f>
-        <v>1755.6491501006553</v>
+        <v>1739.4649893029377</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>226</v>
@@ -14677,14 +14569,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <f>O20/F12</f>
-        <v>31.72406114522293</v>
+        <v>32.482195973885354</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="96">
         <f>F15/A3</f>
-        <v>3.9954402992876087E-2</v>
+        <v>3.9021866766210063E-2</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>229</v>
@@ -14711,7 +14603,7 @@
       </c>
       <c r="K7" s="106">
         <f>K6/K5-1</f>
-        <v>-0.26017810258413987</v>
+        <v>-0.28618298651827656</v>
       </c>
       <c r="L7" s="52" t="s">
         <v>232</v>
@@ -14741,7 +14633,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="107" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>0.73740000000000006</v>
+        <v>0.73529999999999995</v>
       </c>
       <c r="L8" s="93" t="e" vm="3">
         <v>#VALUE!</v>
@@ -15043,7 +14935,7 @@
       </c>
       <c r="O14" s="73">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -15195,7 +15087,7 @@
       </c>
       <c r="O17" s="83">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -15278,7 +15170,7 @@
       </c>
       <c r="O20" s="89">
         <f>A3</f>
-        <v>49806775998</v>
+        <v>50997047679</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -15308,7 +15200,7 @@
       </c>
       <c r="O21" s="89">
         <f>O19+O20</f>
-        <v>53433804248</v>
+        <v>54624075929</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -15336,7 +15228,7 @@
       </c>
       <c r="O22" s="91">
         <f>(O19/O21)</f>
-        <v>6.7878907389150714E-2</v>
+        <v>6.6399809759974462E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -15361,7 +15253,7 @@
       </c>
       <c r="O23" s="92">
         <f>O20/O21</f>
-        <v>0.9321210926108493</v>
+        <v>0.9336001902400255</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15405,7 +15297,7 @@
       <c r="M25" s="59"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.2743569472306664E-2</v>
+        <v>9.3312084358517788E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="41"/>
